--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1408468.714795142</v>
+        <v>1329714.005764795</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1013517.451710558</v>
+        <v>617469.7755448127</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16820315.76880242</v>
+        <v>16430030.69779554</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6673521.484625533</v>
+        <v>6823938.659690262</v>
       </c>
     </row>
     <row r="11">
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>79.33938071763751</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="S11" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="V11" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>100.1875248325463</v>
       </c>
       <c r="X11" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>100.1875248325463</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="S12" t="n">
-        <v>79.33938071763751</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="V12" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.617820899153523</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>8.617820899153493</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.33938071763754</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>100.1875248325463</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.33938071763754</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>90.07649945235866</v>
+        <v>100.1875248325463</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>8.617820899153495</v>
+        <v>8.617820899153521</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>34.28241514086179</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>32.58686004053735</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>113.7460545328637</v>
+        <v>119.3729101132154</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>65.9051096916845</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="Y17" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5009978921654</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>102.4325814732445</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>128.2113769267291</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="W18" t="n">
-        <v>113.7460545328637</v>
+        <v>23.74839322702363</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.617820899153521</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>164.3319241441962</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.58686004053735</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.60066479200896</v>
+        <v>160.1525623512377</v>
       </c>
       <c r="S20" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="W20" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>151.9597701537527</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="U21" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>100.1875248325463</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
     </row>
     <row r="22">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>8.617820899153521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
     </row>
     <row r="23">
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>151.9597701537527</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="C23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="Y23" t="n">
         <v>172.5247163416812</v>
-      </c>
-      <c r="T23" t="n">
-        <v>151.9597701537527</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>151.9597701537527</v>
+        <v>152.3855441159217</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>172.5247163416812</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>8.617820899153523</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>151.9597701537527</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>172.5247163416812</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>151.9597701537527</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>151.9597701537527</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>102.4325814732445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>49.95296264267724</v>
+      </c>
+      <c r="V27" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="T27" t="n">
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>8.617820899153523</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>151.9597701537527</v>
+      </c>
+      <c r="D29" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>151.9597701537527</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,11 +2870,11 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
         <v>151.9597701537527</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="V30" t="n">
         <v>172.5247163416812</v>
       </c>
       <c r="W30" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.617820899153523</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>119.3729101132154</v>
       </c>
       <c r="D32" t="n">
         <v>172.5247163416812</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="T32" t="n">
-        <v>172.5247163416812</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>119.3729101132154</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,76 +3107,76 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>151.9597701537527</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="C33" t="n">
+      <c r="V33" t="n">
         <v>172.5247163416812</v>
       </c>
-      <c r="D33" t="n">
-        <v>151.9597701537527</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>172.5247163416812</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>8.617820899153523</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>131.7450641036589</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>32.58686004053735</v>
       </c>
       <c r="R35" t="n">
-        <v>113.7460545328637</v>
+        <v>160.1525623512377</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>67.60066479200896</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>151.9597701537527</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="V36" t="n">
-        <v>100.1875248325463</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="W36" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.617820899153521</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="C38" t="n">
-        <v>100.1875248325463</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>160.1525623512377</v>
       </c>
       <c r="S38" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>164.3319241441962</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>30.2133375352914</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>160.5932908263777</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>133.6778581337648</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>100.1875248325463</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>113.7460545328637</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>8.617820899153523</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>8.617820899153521</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>67.60066479200896</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>32.58686004053735</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="V41" t="n">
-        <v>79.33938071763751</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="G42" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="H42" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.61911875475543</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>100.1875248325463</v>
       </c>
       <c r="W42" t="n">
-        <v>37.72026196288208</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.617820899153523</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>8.617820899153521</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>34.28241514086179</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.58686004053735</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>100.1875248325463</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>12.47010553623836</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>79.33938071763754</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>90.07649945235866</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="V45" t="n">
-        <v>90.07649945235866</v>
+        <v>100.1875248325463</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.617820899153521</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.231655265615188</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>6.386165633538359</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="C11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="D11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="E11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K11" t="n">
-        <v>48.74618828953633</v>
+        <v>50.63975269597668</v>
       </c>
       <c r="L11" t="n">
-        <v>137.9219227473714</v>
+        <v>117.1584361688496</v>
       </c>
       <c r="M11" t="n">
-        <v>227.0976572052065</v>
+        <v>229.7670301563846</v>
       </c>
       <c r="N11" t="n">
-        <v>316.2733916630415</v>
+        <v>342.3756241439197</v>
       </c>
       <c r="O11" t="n">
-        <v>349.7147367459364</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="P11" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="R11" t="n">
-        <v>280.1652092057604</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="S11" t="n">
-        <v>189.1788461225698</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="T11" t="n">
-        <v>189.1788461225698</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="U11" t="n">
-        <v>189.1788461225698</v>
+        <v>225.1942089741543</v>
       </c>
       <c r="V11" t="n">
-        <v>98.19248303937925</v>
+        <v>110.2992043955041</v>
       </c>
       <c r="W11" t="n">
-        <v>98.19248303937925</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="X11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.206119956188693</v>
+        <v>110.2992043955041</v>
       </c>
       <c r="C12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="D12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="E12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J12" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K12" t="n">
-        <v>12.29782700158643</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L12" t="n">
-        <v>64.45616025397639</v>
+        <v>61.25801761501902</v>
       </c>
       <c r="M12" t="n">
-        <v>153.6318947118115</v>
+        <v>150.433752072854</v>
       </c>
       <c r="N12" t="n">
-        <v>242.8076291696465</v>
+        <v>263.0423460603891</v>
       </c>
       <c r="O12" t="n">
-        <v>331.9833636274816</v>
+        <v>375.6509400479241</v>
       </c>
       <c r="P12" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="R12" t="n">
-        <v>269.3196347262441</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="S12" t="n">
-        <v>189.1788461225698</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="T12" t="n">
-        <v>189.1788461225698</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="U12" t="n">
-        <v>189.1788461225698</v>
+        <v>225.1942089741543</v>
       </c>
       <c r="V12" t="n">
-        <v>98.19248303937925</v>
+        <v>225.1942089741543</v>
       </c>
       <c r="W12" t="n">
-        <v>98.19248303937925</v>
+        <v>110.2992043955041</v>
       </c>
       <c r="X12" t="n">
-        <v>98.19248303937925</v>
+        <v>110.2992043955041</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.206119956188693</v>
+        <v>110.2992043955041</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="C13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="D13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="E13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="M13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="N13" t="n">
-        <v>15.91098955129326</v>
+        <v>17.80455395773363</v>
       </c>
       <c r="O13" t="n">
-        <v>15.91098955129326</v>
+        <v>17.80455395773363</v>
       </c>
       <c r="P13" t="n">
-        <v>15.91098955129326</v>
+        <v>17.80455395773363</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.91098955129326</v>
+        <v>17.80455395773363</v>
       </c>
       <c r="R13" t="n">
-        <v>7.206119956188693</v>
+        <v>17.80455395773363</v>
       </c>
       <c r="S13" t="n">
-        <v>7.206119956188693</v>
+        <v>17.80455395773363</v>
       </c>
       <c r="T13" t="n">
-        <v>7.206119956188693</v>
+        <v>17.80455395773363</v>
       </c>
       <c r="U13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="V13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="W13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="X13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360.3059978094346</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="C14" t="n">
-        <v>360.3059978094346</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="D14" t="n">
-        <v>360.3059978094346</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="E14" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F14" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3332716430535</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H14" t="n">
-        <v>87.34690855986297</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I14" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J14" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K14" t="n">
-        <v>48.74618828953628</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L14" t="n">
-        <v>137.9219227473714</v>
+        <v>118.6001041494048</v>
       </c>
       <c r="M14" t="n">
-        <v>186.4576550607296</v>
+        <v>231.2086981369398</v>
       </c>
       <c r="N14" t="n">
-        <v>242.5264410195069</v>
+        <v>343.8172921244748</v>
       </c>
       <c r="O14" t="n">
-        <v>331.702175477342</v>
+        <v>394.0695300689486</v>
       </c>
       <c r="P14" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="R14" t="n">
-        <v>360.3059978094346</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="S14" t="n">
-        <v>360.3059978094346</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="T14" t="n">
-        <v>360.3059978094346</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="U14" t="n">
-        <v>360.3059978094346</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="V14" t="n">
-        <v>360.3059978094346</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="W14" t="n">
-        <v>360.3059978094346</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="X14" t="n">
-        <v>360.3059978094346</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="Y14" t="n">
-        <v>360.3059978094346</v>
+        <v>123.9946889412793</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.206119956188693</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="C15" t="n">
-        <v>7.206119956188693</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="D15" t="n">
-        <v>7.206119956188693</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="E15" t="n">
-        <v>7.206119956188693</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="F15" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G15" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H15" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I15" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J15" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K15" t="n">
-        <v>12.29782700158646</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L15" t="n">
-        <v>64.45616025397639</v>
+        <v>121.7082783501641</v>
       </c>
       <c r="M15" t="n">
-        <v>153.6318947118115</v>
+        <v>210.8840128079992</v>
       </c>
       <c r="N15" t="n">
-        <v>242.8076291696465</v>
+        <v>323.4926067955342</v>
       </c>
       <c r="O15" t="n">
-        <v>331.9833636274816</v>
+        <v>394.0110199414843</v>
       </c>
       <c r="P15" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="R15" t="n">
-        <v>269.3196347262441</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="S15" t="n">
-        <v>269.3196347262441</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="T15" t="n">
-        <v>269.3196347262441</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3332716430535</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3332716430535</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="W15" t="n">
-        <v>87.34690855986297</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="X15" t="n">
-        <v>87.34690855986297</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="Y15" t="n">
-        <v>87.34690855986297</v>
+        <v>238.8896935199294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="C16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="D16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="E16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="M16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="N16" t="n">
-        <v>15.91098955129323</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="O16" t="n">
-        <v>15.91098955129323</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="P16" t="n">
-        <v>15.91098955129323</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.91098955129323</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="R16" t="n">
-        <v>15.91098955129323</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="S16" t="n">
-        <v>15.91098955129323</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="T16" t="n">
-        <v>15.91098955129323</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="U16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="V16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="W16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="X16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="C17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="D17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="E17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J17" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K17" t="n">
-        <v>9.099684362629093</v>
+        <v>55.34204564068214</v>
       </c>
       <c r="L17" t="n">
-        <v>118.6001041494048</v>
+        <v>164.8424654274578</v>
       </c>
       <c r="M17" t="n">
-        <v>229.7670301563846</v>
+        <v>329.0829812618712</v>
       </c>
       <c r="N17" t="n">
-        <v>342.3756241439197</v>
+        <v>497.7248655642933</v>
       </c>
       <c r="O17" t="n">
-        <v>454.9842181314547</v>
+        <v>629.1841773042188</v>
       </c>
       <c r="P17" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q17" t="n">
-        <v>454.9842181314547</v>
+        <v>657.1828451237578</v>
       </c>
       <c r="R17" t="n">
-        <v>454.9842181314547</v>
+        <v>657.1828451237578</v>
       </c>
       <c r="S17" t="n">
-        <v>340.0892135528045</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="T17" t="n">
-        <v>340.0892135528045</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="U17" t="n">
-        <v>273.5183956824161</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="V17" t="n">
-        <v>158.6233911037659</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="W17" t="n">
-        <v>158.6233911037659</v>
+        <v>362.3367577955794</v>
       </c>
       <c r="X17" t="n">
-        <v>158.6233911037659</v>
+        <v>188.0693675514569</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.72838652511575</v>
+        <v>13.8019773073345</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="C18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="D18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="E18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G18" t="n">
-        <v>225.1942089741543</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H18" t="n">
-        <v>112.5669383760074</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I18" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J18" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K18" t="n">
-        <v>60.11032826420655</v>
+        <v>70.28220733080232</v>
       </c>
       <c r="L18" t="n">
-        <v>112.2686615165965</v>
+        <v>207.2201169132173</v>
       </c>
       <c r="M18" t="n">
-        <v>201.4443959744316</v>
+        <v>296.3958513710524</v>
       </c>
       <c r="N18" t="n">
-        <v>314.0529899619666</v>
+        <v>409.0044453585874</v>
       </c>
       <c r="O18" t="n">
-        <v>426.6615839495016</v>
+        <v>579.8039145368518</v>
       </c>
       <c r="P18" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q18" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="R18" t="n">
-        <v>454.9842181314547</v>
+        <v>560.5924240265944</v>
       </c>
       <c r="S18" t="n">
-        <v>454.9842181314547</v>
+        <v>386.3250337824719</v>
       </c>
       <c r="T18" t="n">
-        <v>454.9842181314547</v>
+        <v>212.0576435383495</v>
       </c>
       <c r="U18" t="n">
-        <v>454.9842181314547</v>
+        <v>212.0576435383495</v>
       </c>
       <c r="V18" t="n">
-        <v>454.9842181314547</v>
+        <v>37.79025329422706</v>
       </c>
       <c r="W18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="X18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="Y18" t="n">
-        <v>340.0892135528045</v>
+        <v>13.8019773073345</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="C19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="D19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="E19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="F19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="G19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="H19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="I19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="J19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="K19" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L19" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="M19" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="N19" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="O19" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="P19" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="R19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="S19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.099684362629093</v>
+        <v>354.0612101213521</v>
       </c>
       <c r="C20" t="n">
-        <v>9.099684362629093</v>
+        <v>354.0612101213521</v>
       </c>
       <c r="D20" t="n">
-        <v>9.099684362629093</v>
+        <v>354.0612101213521</v>
       </c>
       <c r="E20" t="n">
-        <v>9.099684362629093</v>
+        <v>179.7938198772297</v>
       </c>
       <c r="F20" t="n">
-        <v>9.099684362629093</v>
+        <v>179.7938198772297</v>
       </c>
       <c r="G20" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H20" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I20" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J20" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K20" t="n">
-        <v>50.63975269597673</v>
+        <v>55.34204564068213</v>
       </c>
       <c r="L20" t="n">
-        <v>120.3166097805203</v>
+        <v>164.8424654274578</v>
       </c>
       <c r="M20" t="n">
-        <v>168.8523420938786</v>
+        <v>329.0829812618712</v>
       </c>
       <c r="N20" t="n">
-        <v>281.4609360814136</v>
+        <v>497.7248655642933</v>
       </c>
       <c r="O20" t="n">
-        <v>394.0695300689486</v>
+        <v>629.1841773042188</v>
       </c>
       <c r="P20" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q20" t="n">
-        <v>422.0681978884876</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="R20" t="n">
-        <v>353.7846980985796</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="S20" t="n">
-        <v>238.8896935199294</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="T20" t="n">
-        <v>238.8896935199294</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="U20" t="n">
-        <v>238.8896935199294</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="V20" t="n">
-        <v>238.8896935199294</v>
+        <v>354.0612101213521</v>
       </c>
       <c r="W20" t="n">
-        <v>123.9946889412793</v>
+        <v>354.0612101213521</v>
       </c>
       <c r="X20" t="n">
-        <v>9.099684362629093</v>
+        <v>354.0612101213521</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.099684362629093</v>
+        <v>354.0612101213521</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="C21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="D21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="E21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J21" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K21" t="n">
-        <v>20.22819245787174</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L21" t="n">
-        <v>72.38652571026169</v>
+        <v>161.4146154408348</v>
       </c>
       <c r="M21" t="n">
-        <v>161.5622601680968</v>
+        <v>296.3958513710524</v>
       </c>
       <c r="N21" t="n">
-        <v>274.1708541556318</v>
+        <v>409.0044453585874</v>
       </c>
       <c r="O21" t="n">
-        <v>344.6892673015818</v>
+        <v>579.8039145368518</v>
       </c>
       <c r="P21" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q21" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="R21" t="n">
-        <v>340.0892135528045</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="S21" t="n">
-        <v>225.1942089741543</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="T21" t="n">
-        <v>225.1942089741543</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="U21" t="n">
-        <v>110.2992043955041</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="V21" t="n">
-        <v>110.2992043955041</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="W21" t="n">
-        <v>9.099684362629093</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="X21" t="n">
-        <v>9.099684362629093</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.099684362629093</v>
+        <v>167.2966946343575</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="C22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="D22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="E22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="M22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="N22" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="O22" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="P22" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="R22" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="S22" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T22" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U22" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V22" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W22" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X22" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>188.0693675514569</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="C23" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="D23" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="E23" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="F23" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="G23" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="H23" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="I23" t="n">
         <v>13.8019773073345</v>
@@ -5992,7 +5992,7 @@
         <v>13.8019773073345</v>
       </c>
       <c r="K23" t="n">
-        <v>55.34204564068213</v>
+        <v>55.34204564068214</v>
       </c>
       <c r="L23" t="n">
         <v>164.8424654274578</v>
@@ -6016,25 +6016,25 @@
         <v>690.0988653667248</v>
       </c>
       <c r="S23" t="n">
+        <v>690.0988653667248</v>
+      </c>
+      <c r="T23" t="n">
+        <v>690.0988653667248</v>
+      </c>
+      <c r="U23" t="n">
+        <v>690.0988653667248</v>
+      </c>
+      <c r="V23" t="n">
         <v>515.8314751226023</v>
       </c>
-      <c r="T23" t="n">
-        <v>362.3367577955794</v>
-      </c>
-      <c r="U23" t="n">
-        <v>362.3367577955794</v>
-      </c>
-      <c r="V23" t="n">
-        <v>362.3367577955794</v>
-      </c>
       <c r="W23" t="n">
-        <v>362.3367577955794</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="X23" t="n">
-        <v>362.3367577955794</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="Y23" t="n">
-        <v>362.3367577955794</v>
+        <v>167.2966946343575</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>167.2966946343575</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="C24" t="n">
-        <v>13.8019773073345</v>
+        <v>187.6392928421953</v>
       </c>
       <c r="D24" t="n">
         <v>13.8019773073345</v>
@@ -6071,19 +6071,19 @@
         <v>13.8019773073345</v>
       </c>
       <c r="K24" t="n">
-        <v>70.28220733080232</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L24" t="n">
-        <v>125.596382192788</v>
+        <v>161.4146154408348</v>
       </c>
       <c r="M24" t="n">
-        <v>296.3958513710524</v>
+        <v>332.2140846190993</v>
       </c>
       <c r="N24" t="n">
-        <v>409.0044453585874</v>
+        <v>444.8226786066343</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8039145368518</v>
+        <v>615.6221477848986</v>
       </c>
       <c r="P24" t="n">
         <v>690.0988653667248</v>
@@ -6101,19 +6101,19 @@
         <v>515.8314751226023</v>
       </c>
       <c r="U24" t="n">
+        <v>515.8314751226023</v>
+      </c>
+      <c r="V24" t="n">
         <v>341.5640848784799</v>
       </c>
-      <c r="V24" t="n">
-        <v>167.2966946343575</v>
-      </c>
       <c r="W24" t="n">
-        <v>167.2966946343575</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="X24" t="n">
-        <v>167.2966946343575</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.2966946343575</v>
+        <v>341.5640848784799</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="C25" t="n">
         <v>13.8019773073345</v>
@@ -6162,37 +6162,37 @@
         <v>22.50684690243907</v>
       </c>
       <c r="O25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="P25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="R25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="S25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.5640848784799</v>
+        <v>362.3367577955794</v>
       </c>
       <c r="C26" t="n">
-        <v>341.5640848784799</v>
+        <v>362.3367577955794</v>
       </c>
       <c r="D26" t="n">
+        <v>362.3367577955794</v>
+      </c>
+      <c r="E26" t="n">
         <v>188.0693675514569</v>
       </c>
-      <c r="E26" t="n">
-        <v>13.8019773073345</v>
-      </c>
       <c r="F26" t="n">
-        <v>13.8019773073345</v>
+        <v>188.0693675514569</v>
       </c>
       <c r="G26" t="n">
         <v>13.8019773073345</v>
@@ -6229,7 +6229,7 @@
         <v>13.8019773073345</v>
       </c>
       <c r="K26" t="n">
-        <v>55.34204564068213</v>
+        <v>55.34204564068214</v>
       </c>
       <c r="L26" t="n">
         <v>164.8424654274578</v>
@@ -6259,19 +6259,19 @@
         <v>690.0988653667248</v>
       </c>
       <c r="U26" t="n">
-        <v>690.0988653667248</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="V26" t="n">
-        <v>690.0988653667248</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="W26" t="n">
-        <v>515.8314751226023</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="X26" t="n">
-        <v>515.8314751226023</v>
+        <v>362.3367577955794</v>
       </c>
       <c r="Y26" t="n">
-        <v>341.5640848784799</v>
+        <v>362.3367577955794</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13.8019773073345</v>
+        <v>291.1065468555736</v>
       </c>
       <c r="C27" t="n">
-        <v>13.8019773073345</v>
+        <v>291.1065468555736</v>
       </c>
       <c r="D27" t="n">
-        <v>13.8019773073345</v>
+        <v>117.2692313207128</v>
       </c>
       <c r="E27" t="n">
-        <v>13.8019773073345</v>
+        <v>117.2692313207128</v>
       </c>
       <c r="F27" t="n">
-        <v>13.8019773073345</v>
+        <v>117.2692313207128</v>
       </c>
       <c r="G27" t="n">
-        <v>13.8019773073345</v>
+        <v>117.2692313207128</v>
       </c>
       <c r="H27" t="n">
-        <v>13.8019773073345</v>
+        <v>117.2692313207128</v>
       </c>
       <c r="I27" t="n">
         <v>13.8019773073345</v>
@@ -6308,16 +6308,16 @@
         <v>13.8019773073345</v>
       </c>
       <c r="K27" t="n">
-        <v>20.07392490087264</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L27" t="n">
-        <v>167.686563034373</v>
+        <v>161.4146154408348</v>
       </c>
       <c r="M27" t="n">
-        <v>338.4860322126374</v>
+        <v>296.3958513710524</v>
       </c>
       <c r="N27" t="n">
-        <v>509.2855013909018</v>
+        <v>409.0044453585874</v>
       </c>
       <c r="O27" t="n">
         <v>579.8039145368518</v>
@@ -6332,25 +6332,25 @@
         <v>690.0988653667248</v>
       </c>
       <c r="S27" t="n">
-        <v>515.8314751226023</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="T27" t="n">
-        <v>341.5640848784799</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="U27" t="n">
-        <v>341.5640848784799</v>
+        <v>639.6413273438185</v>
       </c>
       <c r="V27" t="n">
-        <v>341.5640848784799</v>
+        <v>465.373937099696</v>
       </c>
       <c r="W27" t="n">
-        <v>341.5640848784799</v>
+        <v>465.373937099696</v>
       </c>
       <c r="X27" t="n">
-        <v>341.5640848784799</v>
+        <v>291.1065468555736</v>
       </c>
       <c r="Y27" t="n">
-        <v>167.2966946343575</v>
+        <v>291.1065468555736</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="C28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="D28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="E28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="F28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="G28" t="n">
         <v>13.8019773073345</v>
@@ -6411,25 +6411,25 @@
         <v>22.50684690243907</v>
       </c>
       <c r="S28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.8019773073345</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="C29" t="n">
-        <v>13.8019773073345</v>
+        <v>536.6041480397018</v>
       </c>
       <c r="D29" t="n">
-        <v>13.8019773073345</v>
+        <v>362.3367577955794</v>
       </c>
       <c r="E29" t="n">
-        <v>13.8019773073345</v>
+        <v>362.3367577955794</v>
       </c>
       <c r="F29" t="n">
-        <v>13.8019773073345</v>
+        <v>188.0693675514569</v>
       </c>
       <c r="G29" t="n">
         <v>13.8019773073345</v>
@@ -6493,22 +6493,22 @@
         <v>690.0988653667248</v>
       </c>
       <c r="T29" t="n">
-        <v>536.6041480397018</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="U29" t="n">
-        <v>536.6041480397018</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="V29" t="n">
-        <v>536.6041480397018</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="W29" t="n">
-        <v>362.3367577955794</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="X29" t="n">
-        <v>188.0693675514569</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Y29" t="n">
-        <v>188.0693675514569</v>
+        <v>690.0988653667248</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="C30" t="n">
         <v>13.8019773073345</v>
@@ -6545,19 +6545,19 @@
         <v>13.8019773073345</v>
       </c>
       <c r="K30" t="n">
-        <v>15.24717374966868</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L30" t="n">
-        <v>67.40550700205864</v>
+        <v>161.4146154408348</v>
       </c>
       <c r="M30" t="n">
-        <v>238.204976180323</v>
+        <v>332.2140846190993</v>
       </c>
       <c r="N30" t="n">
-        <v>409.0044453585874</v>
+        <v>490.9767620065073</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8039145368518</v>
+        <v>661.7762311847717</v>
       </c>
       <c r="P30" t="n">
         <v>690.0988653667248</v>
@@ -6572,16 +6572,16 @@
         <v>690.0988653667248</v>
       </c>
       <c r="T30" t="n">
-        <v>690.0988653667248</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="U30" t="n">
-        <v>690.0988653667248</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="V30" t="n">
-        <v>515.8314751226023</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="W30" t="n">
-        <v>341.5640848784799</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="X30" t="n">
         <v>167.2966946343575</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="C31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="D31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="E31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="F31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="G31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="H31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="I31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="J31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="K31" t="n">
         <v>13.8019773073345</v>
@@ -6642,31 +6642,31 @@
         <v>22.50684690243907</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="R31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="S31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>482.9154548796354</v>
+      </c>
+      <c r="C32" t="n">
+        <v>362.3367577955794</v>
+      </c>
+      <c r="D32" t="n">
         <v>188.0693675514569</v>
-      </c>
-      <c r="C32" t="n">
-        <v>188.0693675514569</v>
-      </c>
-      <c r="D32" t="n">
-        <v>13.8019773073345</v>
       </c>
       <c r="E32" t="n">
         <v>13.8019773073345</v>
@@ -6727,25 +6727,25 @@
         <v>657.1828451237578</v>
       </c>
       <c r="S32" t="n">
-        <v>657.1828451237578</v>
+        <v>482.9154548796354</v>
       </c>
       <c r="T32" t="n">
         <v>482.9154548796354</v>
       </c>
       <c r="U32" t="n">
-        <v>362.3367577955794</v>
+        <v>482.9154548796354</v>
       </c>
       <c r="V32" t="n">
-        <v>362.3367577955794</v>
+        <v>482.9154548796354</v>
       </c>
       <c r="W32" t="n">
-        <v>362.3367577955794</v>
+        <v>482.9154548796354</v>
       </c>
       <c r="X32" t="n">
-        <v>362.3367577955794</v>
+        <v>482.9154548796354</v>
       </c>
       <c r="Y32" t="n">
-        <v>362.3367577955794</v>
+        <v>482.9154548796354</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>341.5640848784799</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="C33" t="n">
         <v>167.2966946343575</v>
       </c>
       <c r="D33" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="E33" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="F33" t="n">
-        <v>13.8019773073345</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="G33" t="n">
         <v>13.8019773073345</v>
@@ -6782,19 +6782,19 @@
         <v>13.8019773073345</v>
       </c>
       <c r="K33" t="n">
-        <v>15.24717374966868</v>
+        <v>70.28220733080232</v>
       </c>
       <c r="L33" t="n">
-        <v>67.40550700205864</v>
+        <v>217.8948454643027</v>
       </c>
       <c r="M33" t="n">
-        <v>238.204976180323</v>
+        <v>307.0705799221378</v>
       </c>
       <c r="N33" t="n">
-        <v>409.0044453585874</v>
+        <v>419.6791739096728</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8039145368518</v>
+        <v>590.4786430879371</v>
       </c>
       <c r="P33" t="n">
         <v>690.0988653667248</v>
@@ -6812,19 +6812,19 @@
         <v>690.0988653667248</v>
       </c>
       <c r="U33" t="n">
-        <v>690.0988653667248</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="V33" t="n">
-        <v>690.0988653667248</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="W33" t="n">
-        <v>515.8314751226023</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="X33" t="n">
-        <v>515.8314751226023</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="Y33" t="n">
-        <v>515.8314751226023</v>
+        <v>167.2966946343575</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="C34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="D34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="E34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="F34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="G34" t="n">
         <v>13.8019773073345</v>
@@ -6873,37 +6873,37 @@
         <v>22.50684690243907</v>
       </c>
       <c r="O34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="P34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="R34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="S34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.8019773073345</v>
+        <v>22.50684690243907</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.099684362629093</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="C35" t="n">
-        <v>9.099684362629093</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="D35" t="n">
-        <v>9.099684362629093</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="E35" t="n">
-        <v>9.099684362629093</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="F35" t="n">
-        <v>9.099684362629093</v>
+        <v>188.0693675514569</v>
       </c>
       <c r="G35" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H35" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I35" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J35" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K35" t="n">
-        <v>50.63975269597673</v>
+        <v>55.34204564068214</v>
       </c>
       <c r="L35" t="n">
-        <v>160.1401724827524</v>
+        <v>164.8424654274578</v>
       </c>
       <c r="M35" t="n">
-        <v>208.6759047961107</v>
+        <v>329.0829812618712</v>
       </c>
       <c r="N35" t="n">
-        <v>321.2844987836457</v>
+        <v>497.7248655642933</v>
       </c>
       <c r="O35" t="n">
-        <v>433.8930927711808</v>
+        <v>629.1841773042188</v>
       </c>
       <c r="P35" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q35" t="n">
-        <v>422.0681978884876</v>
+        <v>657.1828451237578</v>
       </c>
       <c r="R35" t="n">
-        <v>307.1731933098375</v>
+        <v>495.4125801225076</v>
       </c>
       <c r="S35" t="n">
-        <v>307.1731933098375</v>
+        <v>495.4125801225076</v>
       </c>
       <c r="T35" t="n">
-        <v>192.2781887311873</v>
+        <v>495.4125801225076</v>
       </c>
       <c r="U35" t="n">
-        <v>123.9946889412793</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="V35" t="n">
-        <v>123.9946889412793</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="W35" t="n">
-        <v>123.9946889412793</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="X35" t="n">
-        <v>9.099684362629093</v>
+        <v>321.1451898783852</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.099684362629093</v>
+        <v>321.1451898783852</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.099684362629093</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="C36" t="n">
-        <v>9.099684362629093</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="D36" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="E36" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F36" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G36" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H36" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I36" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J36" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K36" t="n">
-        <v>9.099684362629093</v>
+        <v>59.60747877971698</v>
       </c>
       <c r="L36" t="n">
-        <v>72.38652571026169</v>
+        <v>207.2201169132173</v>
       </c>
       <c r="M36" t="n">
-        <v>161.5622601680968</v>
+        <v>296.3958513710524</v>
       </c>
       <c r="N36" t="n">
-        <v>274.1708541556318</v>
+        <v>409.0044453585874</v>
       </c>
       <c r="O36" t="n">
-        <v>344.6892673015818</v>
+        <v>579.8039145368518</v>
       </c>
       <c r="P36" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q36" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="R36" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="S36" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="T36" t="n">
-        <v>340.0892135528045</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="U36" t="n">
-        <v>340.0892135528045</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="V36" t="n">
-        <v>238.8896935199294</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="W36" t="n">
-        <v>123.9946889412793</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="X36" t="n">
-        <v>123.9946889412793</v>
+        <v>167.2966946343575</v>
       </c>
       <c r="Y36" t="n">
-        <v>123.9946889412793</v>
+        <v>167.2966946343575</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="C37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="D37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="E37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="M37" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="N37" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="O37" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="P37" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="R37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="S37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>225.1942089741543</v>
+        <v>188.0693675514569</v>
       </c>
       <c r="C38" t="n">
-        <v>123.9946889412793</v>
+        <v>188.0693675514569</v>
       </c>
       <c r="D38" t="n">
-        <v>123.9946889412793</v>
+        <v>188.0693675514569</v>
       </c>
       <c r="E38" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F38" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G38" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H38" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I38" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J38" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K38" t="n">
-        <v>9.099684362629093</v>
+        <v>55.34204564068214</v>
       </c>
       <c r="L38" t="n">
-        <v>56.24374810634355</v>
+        <v>164.8424654274578</v>
       </c>
       <c r="M38" t="n">
-        <v>168.8523420938786</v>
+        <v>329.0829812618712</v>
       </c>
       <c r="N38" t="n">
-        <v>281.4609360814136</v>
+        <v>497.7248655642933</v>
       </c>
       <c r="O38" t="n">
-        <v>394.0695300689486</v>
+        <v>629.1841773042188</v>
       </c>
       <c r="P38" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q38" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="R38" t="n">
-        <v>454.9842181314547</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="S38" t="n">
-        <v>340.0892135528045</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="T38" t="n">
-        <v>340.0892135528045</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="U38" t="n">
-        <v>225.1942089741543</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="V38" t="n">
-        <v>225.1942089741543</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="W38" t="n">
-        <v>225.1942089741543</v>
+        <v>528.3286003654746</v>
       </c>
       <c r="X38" t="n">
-        <v>225.1942089741543</v>
+        <v>362.3367577955794</v>
       </c>
       <c r="Y38" t="n">
-        <v>225.1942089741543</v>
+        <v>362.3367577955794</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>123.9946889412793</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="C39" t="n">
-        <v>9.099684362629093</v>
+        <v>341.5640848784799</v>
       </c>
       <c r="D39" t="n">
-        <v>9.099684362629093</v>
+        <v>311.0455621155593</v>
       </c>
       <c r="E39" t="n">
-        <v>9.099684362629093</v>
+        <v>311.0455621155593</v>
       </c>
       <c r="F39" t="n">
-        <v>9.099684362629093</v>
+        <v>311.0455621155593</v>
       </c>
       <c r="G39" t="n">
-        <v>9.099684362629093</v>
+        <v>148.8301168363898</v>
       </c>
       <c r="H39" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I39" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J39" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K39" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L39" t="n">
-        <v>72.38652571026169</v>
+        <v>161.4146154408348</v>
       </c>
       <c r="M39" t="n">
-        <v>161.5622601680968</v>
+        <v>332.2140846190993</v>
       </c>
       <c r="N39" t="n">
-        <v>274.1708541556318</v>
+        <v>503.0135537973637</v>
       </c>
       <c r="O39" t="n">
-        <v>344.6892673015818</v>
+        <v>579.8039145368518</v>
       </c>
       <c r="P39" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="Q39" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="R39" t="n">
-        <v>454.9842181314547</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="S39" t="n">
-        <v>340.0892135528045</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="T39" t="n">
-        <v>238.8896935199294</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="U39" t="n">
-        <v>123.9946889412793</v>
+        <v>690.0988653667248</v>
       </c>
       <c r="V39" t="n">
-        <v>123.9946889412793</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="W39" t="n">
-        <v>123.9946889412793</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="X39" t="n">
-        <v>123.9946889412793</v>
+        <v>515.8314751226023</v>
       </c>
       <c r="Y39" t="n">
-        <v>123.9946889412793</v>
+        <v>515.8314751226023</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="C40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="D40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="E40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="F40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="G40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="H40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="I40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="J40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="K40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="L40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="M40" t="n">
-        <v>9.099684362629093</v>
+        <v>13.8019773073345</v>
       </c>
       <c r="N40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="O40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="P40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="R40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="S40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="T40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="U40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="V40" t="n">
-        <v>17.80455395773366</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="W40" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="X40" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.099684362629093</v>
+        <v>22.50684690243907</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.19248303937925</v>
+        <v>307.1731933098375</v>
       </c>
       <c r="C41" t="n">
-        <v>7.206119956188693</v>
+        <v>307.1731933098375</v>
       </c>
       <c r="D41" t="n">
-        <v>7.206119956188693</v>
+        <v>307.1731933098375</v>
       </c>
       <c r="E41" t="n">
-        <v>7.206119956188693</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="F41" t="n">
-        <v>7.206119956188693</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="G41" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H41" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I41" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J41" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K41" t="n">
-        <v>48.74618828953633</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L41" t="n">
-        <v>72.50410851790012</v>
+        <v>118.6001041494048</v>
       </c>
       <c r="M41" t="n">
-        <v>121.0398408312584</v>
+        <v>231.2086981369398</v>
       </c>
       <c r="N41" t="n">
-        <v>210.2155752890935</v>
+        <v>342.3756241439197</v>
       </c>
       <c r="O41" t="n">
-        <v>299.3913097469286</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="P41" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.3059978094346</v>
+        <v>422.0681978884876</v>
       </c>
       <c r="R41" t="n">
-        <v>360.3059978094346</v>
+        <v>422.0681978884876</v>
       </c>
       <c r="S41" t="n">
-        <v>360.3059978094346</v>
+        <v>422.0681978884876</v>
       </c>
       <c r="T41" t="n">
-        <v>360.3059978094346</v>
+        <v>422.0681978884876</v>
       </c>
       <c r="U41" t="n">
-        <v>360.3059978094346</v>
+        <v>307.1731933098375</v>
       </c>
       <c r="V41" t="n">
-        <v>280.1652092057604</v>
+        <v>307.1731933098375</v>
       </c>
       <c r="W41" t="n">
-        <v>189.1788461225698</v>
+        <v>307.1731933098375</v>
       </c>
       <c r="X41" t="n">
-        <v>189.1788461225698</v>
+        <v>307.1731933098375</v>
       </c>
       <c r="Y41" t="n">
-        <v>189.1788461225698</v>
+        <v>307.1731933098375</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>322.2047230994527</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="C42" t="n">
-        <v>322.2047230994527</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="D42" t="n">
-        <v>231.2183600162622</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="E42" t="n">
-        <v>231.2183600162622</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="F42" t="n">
-        <v>231.2183600162622</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="G42" t="n">
-        <v>140.2319969330716</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H42" t="n">
-        <v>49.24563384988105</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I42" t="n">
-        <v>49.24563384988105</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J42" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K42" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L42" t="n">
-        <v>59.36445320857865</v>
+        <v>121.7082783501641</v>
       </c>
       <c r="M42" t="n">
-        <v>148.5401876664137</v>
+        <v>234.3168723376992</v>
       </c>
       <c r="N42" t="n">
-        <v>237.7159221242488</v>
+        <v>346.9254663252342</v>
       </c>
       <c r="O42" t="n">
-        <v>326.8916565820838</v>
+        <v>417.4438794711842</v>
       </c>
       <c r="P42" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q42" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="R42" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="S42" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="T42" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="U42" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="V42" t="n">
-        <v>360.3059978094346</v>
+        <v>353.7846980985796</v>
       </c>
       <c r="W42" t="n">
-        <v>322.2047230994527</v>
+        <v>353.7846980985796</v>
       </c>
       <c r="X42" t="n">
-        <v>322.2047230994527</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="Y42" t="n">
-        <v>322.2047230994527</v>
+        <v>238.8896935199294</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="C43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="D43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="E43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="M43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="N43" t="n">
-        <v>15.91098955129326</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="O43" t="n">
-        <v>15.91098955129326</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="P43" t="n">
-        <v>15.91098955129326</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.206119956188693</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="R43" t="n">
-        <v>7.206119956188693</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="S43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="T43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="U43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="V43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="W43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="X43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.8075482850565</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="C44" t="n">
-        <v>223.8075482850565</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="D44" t="n">
-        <v>223.8075482850565</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="E44" t="n">
-        <v>223.8075482850565</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F44" t="n">
-        <v>132.8211852018659</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G44" t="n">
-        <v>41.83482211867535</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H44" t="n">
-        <v>41.83482211867535</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I44" t="n">
-        <v>41.83482211867535</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J44" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K44" t="n">
-        <v>48.74618828953633</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L44" t="n">
-        <v>50.74061145102608</v>
+        <v>118.6001041494048</v>
       </c>
       <c r="M44" t="n">
-        <v>139.9163459088612</v>
+        <v>231.2086981369398</v>
       </c>
       <c r="N44" t="n">
-        <v>229.0920803666962</v>
+        <v>342.3756241439197</v>
       </c>
       <c r="O44" t="n">
-        <v>318.2678148245313</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="P44" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q44" t="n">
-        <v>327.3899775664676</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="R44" t="n">
-        <v>327.3899775664676</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="S44" t="n">
-        <v>327.3899775664676</v>
+        <v>353.7846980985796</v>
       </c>
       <c r="T44" t="n">
-        <v>327.3899775664676</v>
+        <v>353.7846980985796</v>
       </c>
       <c r="U44" t="n">
-        <v>236.4036144832771</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="V44" t="n">
-        <v>236.4036144832771</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="W44" t="n">
-        <v>223.8075482850565</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="X44" t="n">
-        <v>223.8075482850565</v>
+        <v>238.8896935199294</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.8075482850565</v>
+        <v>123.9946889412793</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="C45" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="D45" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="E45" t="n">
-        <v>178.3332716430535</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F45" t="n">
-        <v>98.19248303937925</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G45" t="n">
-        <v>98.19248303937925</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H45" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I45" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J45" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K45" t="n">
-        <v>7.206119956188693</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L45" t="n">
-        <v>83.11348156586142</v>
+        <v>61.25801761501905</v>
       </c>
       <c r="M45" t="n">
-        <v>172.2892160236965</v>
+        <v>150.4337520728541</v>
       </c>
       <c r="N45" t="n">
-        <v>261.4649504815316</v>
+        <v>263.0423460603891</v>
       </c>
       <c r="O45" t="n">
-        <v>331.9833636274816</v>
+        <v>344.6892673015818</v>
       </c>
       <c r="P45" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="Q45" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="R45" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="S45" t="n">
-        <v>360.3059978094346</v>
+        <v>454.9842181314547</v>
       </c>
       <c r="T45" t="n">
-        <v>360.3059978094346</v>
+        <v>340.0892135528045</v>
       </c>
       <c r="U45" t="n">
-        <v>360.3059978094346</v>
+        <v>225.1942089741543</v>
       </c>
       <c r="V45" t="n">
-        <v>269.3196347262441</v>
+        <v>123.9946889412793</v>
       </c>
       <c r="W45" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="X45" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="Y45" t="n">
-        <v>269.3196347262441</v>
+        <v>9.099684362629093</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>353.8553254523252</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="C46" t="n">
-        <v>353.8553254523252</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="D46" t="n">
-        <v>353.8553254523252</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="E46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="F46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="G46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="H46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="I46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="J46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="K46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="L46" t="n">
-        <v>353.8553254523252</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="M46" t="n">
-        <v>351.6011282143301</v>
+        <v>9.099684362629093</v>
       </c>
       <c r="N46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="O46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="P46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="Q46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="R46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="S46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="T46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="U46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="V46" t="n">
-        <v>360.3059978094346</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="W46" t="n">
-        <v>353.8553254523252</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="X46" t="n">
-        <v>353.8553254523252</v>
+        <v>17.80455395773366</v>
       </c>
       <c r="Y46" t="n">
-        <v>353.8553254523252</v>
+        <v>17.80455395773366</v>
       </c>
     </row>
   </sheetData>
@@ -8306,7 +8306,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N6" t="n">
-        <v>103.0025334990966</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O6" t="n">
         <v>102.4042030119497</v>
@@ -8540,13 +8540,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M9" t="n">
-        <v>83.92045636931252</v>
+        <v>104.5046437021011</v>
       </c>
       <c r="N9" t="n">
-        <v>64.85608296530633</v>
+        <v>85.98507248663284</v>
       </c>
       <c r="O9" t="n">
-        <v>92.15534270158889</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P9" t="n">
         <v>82.80031984638366</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>88.06193060236902</v>
+        <v>65.17602051654873</v>
       </c>
       <c r="M11" t="n">
-        <v>41.05050721664318</v>
+        <v>64.72006229714827</v>
       </c>
       <c r="N11" t="n">
-        <v>33.44136212026027</v>
+        <v>57.1109172007653</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>79.96691808549525</v>
       </c>
       <c r="P11" t="n">
-        <v>32.8359196811433</v>
+        <v>22.1376761826603</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>16.85336265552289</v>
+        <v>11.71022422582826</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>18.84577910291421</v>
+        <v>42.51533418341927</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>51.5259029308864</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850284</v>
+        <v>42.3181422853234</v>
       </c>
       <c r="L14" t="n">
-        <v>88.06193060236907</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>64.72006229714819</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>57.11091720076527</v>
       </c>
       <c r="O14" t="n">
-        <v>56.29736300499027</v>
+        <v>16.98069986018078</v>
       </c>
       <c r="P14" t="n">
-        <v>51.03042601305691</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>16.85336265552297</v>
+        <v>11.7102242258282</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.06086942943946</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>18.84577910291426</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>32.98036768486597</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.62009481132077</v>
+        <v>54.62009481132074</v>
       </c>
       <c r="R15" t="n">
         <v>11.83563415094341</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>42.3181422853234</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>63.26383201375914</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>57.11091720076524</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>79.96691808549514</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>22.13767618266019</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,10 +9245,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>63.23612715671452</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>85.63593568689399</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>42.51533418341921</v>
+        <v>101.2939959922368</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.62009481132077</v>
+        <v>54.62009481132074</v>
       </c>
       <c r="R18" t="n">
         <v>11.83563415094341</v>
@@ -9406,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>68.36609487177148</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>57.11091720076524</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>79.96691808549514</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,25 +9482,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>22.95114149375006</v>
+        <v>11.7102242258282</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>46.26818330543685</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>101.2939959922368</v>
       </c>
       <c r="P21" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.62009481132077</v>
+        <v>54.62009481132074</v>
       </c>
       <c r="R21" t="n">
         <v>11.83563415094341</v>
@@ -9719,25 +9719,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>11.7102242258282</v>
       </c>
       <c r="L24" t="n">
-        <v>3.187718797571442</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M24" t="n">
-        <v>82.44821688932251</v>
+        <v>82.44821688932254</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>101.2939959922368</v>
+        <v>101.2939959922367</v>
       </c>
       <c r="P24" t="n">
-        <v>82.80031984638366</v>
+        <v>46.62028626249807</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.62009481132077</v>
+        <v>54.62009481132074</v>
       </c>
       <c r="R24" t="n">
         <v>11.83563415094341</v>
@@ -9956,19 +9956,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>18.04552482536168</v>
+        <v>11.7102242258282</v>
       </c>
       <c r="L27" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M27" t="n">
-        <v>82.44821688932251</v>
+        <v>46.26818330543685</v>
       </c>
       <c r="N27" t="n">
-        <v>58.7786618088175</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>101.2939959922368</v>
       </c>
       <c r="P27" t="n">
         <v>82.80031984638366</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>13.17001861202435</v>
+        <v>11.7102242258282</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M30" t="n">
-        <v>82.44821688932251</v>
+        <v>82.44821688932254</v>
       </c>
       <c r="N30" t="n">
-        <v>58.7786618088175</v>
+        <v>46.62028626249801</v>
       </c>
       <c r="O30" t="n">
         <v>101.2939959922368</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10430,25 +10430,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>13.17001861202435</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M33" t="n">
-        <v>82.44821688932251</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>58.7786618088175</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>101.2939959922368</v>
+        <v>101.2939959922367</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>72.01776575437836</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.62009481132077</v>
+        <v>54.62009481132074</v>
       </c>
       <c r="R33" t="n">
         <v>11.83563415094341</v>
@@ -10594,16 +10594,16 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>57.11091720076527</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>79.96691808549517</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>43.44184321323989</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,10 +10667,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>11.7102242258282</v>
+        <v>57.97840753126506</v>
       </c>
       <c r="L36" t="n">
-        <v>11.24091726792186</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>101.2939959922368</v>
       </c>
       <c r="P36" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.62009481132077</v>
+        <v>54.62009481132074</v>
       </c>
       <c r="R36" t="n">
         <v>11.83563415094341</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>42.3181422853234</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>45.60569755780273</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>64.72006229714816</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>57.11091720076524</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>79.96691808549514</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>83.66766412458544</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10907,16 +10907,16 @@
         <v>11.7102242258282</v>
       </c>
       <c r="L39" t="n">
-        <v>11.24091726792186</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>82.44821688932254</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>58.77866180881753</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>6.335300599533497</v>
       </c>
       <c r="P39" t="n">
         <v>82.80031984638366</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>42.3181422853234</v>
       </c>
       <c r="L41" t="n">
-        <v>21.98333037057984</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>64.72006229714819</v>
       </c>
       <c r="N41" t="n">
-        <v>33.44136212026024</v>
+        <v>55.6546869173762</v>
       </c>
       <c r="O41" t="n">
-        <v>56.29736300499013</v>
+        <v>79.96691808549514</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>22.13767618266019</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11144,19 +11144,19 @@
         <v>11.7102242258282</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.06086942943946</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>23.66955508050501</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>18.84577910291421</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5.143138429694673</v>
+        <v>9.310812604360969</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>42.3181422853234</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>41.05050721664318</v>
+        <v>64.72006229714819</v>
       </c>
       <c r="N44" t="n">
-        <v>33.44136212026027</v>
+        <v>55.6546869173762</v>
       </c>
       <c r="O44" t="n">
-        <v>56.29736300499016</v>
+        <v>79.96691808549514</v>
       </c>
       <c r="P44" t="n">
-        <v>64.60048727852217</v>
+        <v>22.13767618266019</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11381,7 +11381,7 @@
         <v>11.7102242258282</v>
       </c>
       <c r="L45" t="n">
-        <v>23.98891753260887</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>11.24091726792183</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.5342625736135</v>
+        <v>23.59022157426205</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.95004669593683</v>
+        <v>23.10545754068005</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.67592113082181</v>
+        <v>22.82775691401512</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>222.9010234321688</v>
       </c>
       <c r="J11" t="n">
-        <v>34.28241514086179</v>
+        <v>34.28241514086181</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.58686004053735</v>
+        <v>32.5868600405374</v>
       </c>
       <c r="R11" t="n">
-        <v>80.81318163360024</v>
+        <v>46.40650781837411</v>
       </c>
       <c r="S11" t="n">
-        <v>127.2318033238914</v>
+        <v>217.3083027762501</v>
       </c>
       <c r="T11" t="n">
         <v>215.8937056438147</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7257847673881</v>
+        <v>134.9797302345245</v>
       </c>
       <c r="V11" t="n">
-        <v>223.2279425486645</v>
+        <v>199.5583874681595</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>225.2042006467471</v>
       </c>
       <c r="X11" t="n">
-        <v>258.7403798511542</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
         <v>377.9289763951821</v>
@@ -23339,7 +23339,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>103.6549027826931</v>
       </c>
       <c r="D12" t="n">
         <v>172.0989423795122</v>
@@ -23351,7 +23351,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.5932908263777</v>
+        <v>160.5932908263778</v>
       </c>
       <c r="H12" t="n">
         <v>133.6778581337648</v>
@@ -23360,7 +23360,7 @@
         <v>102.4325814732445</v>
       </c>
       <c r="J12" t="n">
-        <v>41.61911875475543</v>
+        <v>41.61911875475545</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.13487747437043</v>
+        <v>14.46532239386542</v>
       </c>
       <c r="S12" t="n">
-        <v>120.8506777563771</v>
+        <v>200.1900584740146</v>
       </c>
       <c r="T12" t="n">
         <v>228.3956466458399</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6218126605923</v>
+        <v>135.8757581277286</v>
       </c>
       <c r="V12" t="n">
-        <v>159.2234257278137</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>169.5032022300674</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>152.8197669612347</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="13">
@@ -23442,28 +23442,28 @@
         <v>107.2865423492787</v>
       </c>
       <c r="K13" t="n">
-        <v>46.39190810170894</v>
+        <v>46.39190810170895</v>
       </c>
       <c r="L13" t="n">
-        <v>8.457998747094877</v>
+        <v>8.457998747094905</v>
       </c>
       <c r="M13" t="n">
-        <v>2.231655265615188</v>
+        <v>2.231655265615217</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>20.75794975975202</v>
+        <v>20.75794975975205</v>
       </c>
       <c r="P13" t="n">
-        <v>47.09271678198189</v>
+        <v>47.09271678198192</v>
       </c>
       <c r="Q13" t="n">
         <v>122.0362972946476</v>
       </c>
       <c r="R13" t="n">
-        <v>196.5401591062752</v>
+        <v>205.1579800054288</v>
       </c>
       <c r="S13" t="n">
         <v>237.5311425261787</v>
@@ -23472,7 +23472,7 @@
         <v>216.5761505297352</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2002971639619</v>
+        <v>282.5824762648083</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23503,22 +23503,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
-        <v>269.8820554839286</v>
+        <v>246.2125004034237</v>
       </c>
       <c r="F14" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>331.3159625050056</v>
+        <v>421.3924619573643</v>
       </c>
       <c r="H14" t="n">
-        <v>251.5121234477091</v>
+        <v>341.5886229000677</v>
       </c>
       <c r="I14" t="n">
-        <v>143.5616427145312</v>
+        <v>222.9010234321688</v>
       </c>
       <c r="J14" t="n">
-        <v>34.28241514086181</v>
+        <v>34.28241514086179</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.5868600405374</v>
+        <v>32.58686004053735</v>
       </c>
       <c r="R14" t="n">
-        <v>160.1525623512378</v>
+        <v>46.40650781837408</v>
       </c>
       <c r="S14" t="n">
         <v>217.3083027762501</v>
@@ -23557,10 +23557,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>225.2042006467471</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>235.0708247706492</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108.6733766633969</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>58.35288784664854</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9843481253239</v>
+        <v>60.23829359246025</v>
       </c>
       <c r="G15" t="n">
-        <v>160.5932908263778</v>
+        <v>160.5932908263777</v>
       </c>
       <c r="H15" t="n">
         <v>133.6778581337648</v>
@@ -23597,7 +23597,7 @@
         <v>102.4325814732445</v>
       </c>
       <c r="J15" t="n">
-        <v>41.61911875475545</v>
+        <v>41.61911875475543</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.13487747437043</v>
+        <v>14.46532239386542</v>
       </c>
       <c r="S15" t="n">
         <v>200.1900584740146</v>
@@ -23630,13 +23630,13 @@
         <v>228.3956466458399</v>
       </c>
       <c r="U15" t="n">
-        <v>159.5453132082336</v>
+        <v>249.6218126605923</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>193.1727573105725</v>
+        <v>183.0617319303848</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23679,22 +23679,22 @@
         <v>107.2865423492787</v>
       </c>
       <c r="K16" t="n">
-        <v>46.39190810170895</v>
+        <v>46.39190810170894</v>
       </c>
       <c r="L16" t="n">
-        <v>8.457998747094905</v>
+        <v>8.457998747094877</v>
       </c>
       <c r="M16" t="n">
-        <v>2.231655265615217</v>
+        <v>2.231655265615188</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>20.75794975975205</v>
+        <v>20.75794975975202</v>
       </c>
       <c r="P16" t="n">
-        <v>47.09271678198192</v>
+        <v>47.09271678198189</v>
       </c>
       <c r="Q16" t="n">
         <v>122.0362972946476</v>
@@ -23755,7 +23755,7 @@
         <v>222.9010234321688</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>34.28241514086179</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.58686004053735</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>160.1525623512377</v>
       </c>
       <c r="S17" t="n">
-        <v>103.5622482433864</v>
+        <v>97.93539266303463</v>
       </c>
       <c r="T17" t="n">
         <v>215.8937056438147</v>
       </c>
       <c r="U17" t="n">
-        <v>182.8206750757037</v>
+        <v>248.7257847673881</v>
       </c>
       <c r="V17" t="n">
-        <v>199.5583874681595</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>152.8670091376122</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>176.2921629618317</v>
       </c>
       <c r="Y17" t="n">
-        <v>264.1829218623185</v>
+        <v>205.4042600535009</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>46.84723629351407</v>
+        <v>160.5932908263777</v>
       </c>
       <c r="H18" t="n">
-        <v>22.17686024159933</v>
+        <v>133.6778581337648</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>102.4325814732445</v>
       </c>
       <c r="J18" t="n">
         <v>41.61911875475543</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>128.2113769267291</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>200.1900584740146</v>
+        <v>27.66534213233345</v>
       </c>
       <c r="T18" t="n">
-        <v>228.3956466458399</v>
+        <v>55.87093030415875</v>
       </c>
       <c r="U18" t="n">
         <v>249.6218126605923</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>76.77520883849118</v>
       </c>
       <c r="W18" t="n">
-        <v>169.5032022300674</v>
+        <v>259.5008635359075</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23916,7 +23916,7 @@
         <v>107.2865423492787</v>
       </c>
       <c r="K19" t="n">
-        <v>46.39190810170894</v>
+        <v>37.77408720255541</v>
       </c>
       <c r="L19" t="n">
         <v>8.457998747094877</v>
@@ -23934,7 +23934,7 @@
         <v>47.09271678198189</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.418476395494</v>
+        <v>122.0362972946476</v>
       </c>
       <c r="R19" t="n">
         <v>205.1579800054288</v>
@@ -23977,13 +23977,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>187.4338385946061</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.3924619573643</v>
+        <v>257.060537813168</v>
       </c>
       <c r="H20" t="n">
         <v>341.5886229000677</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>32.58686004053735</v>
       </c>
       <c r="R20" t="n">
-        <v>92.55189755922879</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.5622482433864</v>
+        <v>217.3083027762501</v>
       </c>
       <c r="T20" t="n">
         <v>215.8937056438147</v>
@@ -24028,13 +24028,13 @@
         <v>248.7257847673881</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>140.7797256593419</v>
       </c>
       <c r="W20" t="n">
-        <v>211.6456709464297</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
-        <v>235.0708247706492</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
         <v>377.9289763951821</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>188.0127573810344</v>
+        <v>36.05298722728173</v>
       </c>
       <c r="C21" t="n">
         <v>203.8424276152394</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.46532239386542</v>
+        <v>128.2113769267291</v>
       </c>
       <c r="S21" t="n">
-        <v>86.44400394115098</v>
+        <v>200.1900584740146</v>
       </c>
       <c r="T21" t="n">
-        <v>228.3956466458399</v>
+        <v>55.87093030415875</v>
       </c>
       <c r="U21" t="n">
-        <v>135.8757581277286</v>
+        <v>249.6218126605923</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>183.0617319303848</v>
+        <v>110.7245404212499</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>242.8962664135933</v>
+        <v>70.37155007191214</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>237.5311425261787</v>
       </c>
       <c r="T22" t="n">
-        <v>207.9583296305817</v>
+        <v>216.5761505297352</v>
       </c>
       <c r="U22" t="n">
         <v>291.2002971639619</v>
@@ -24195,7 +24195,7 @@
         <v>217.7416213385031</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.5502738121359</v>
+        <v>206.9324529129824</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.031611255382</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>161.0724031325273</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24226,7 +24226,7 @@
         <v>341.5886229000677</v>
       </c>
       <c r="I23" t="n">
-        <v>222.9010234321688</v>
+        <v>70.94125327841604</v>
       </c>
       <c r="J23" t="n">
         <v>34.28241514086179</v>
@@ -24256,25 +24256,25 @@
         <v>160.1525623512377</v>
       </c>
       <c r="S23" t="n">
-        <v>44.78358643456886</v>
+        <v>217.3083027762501</v>
       </c>
       <c r="T23" t="n">
-        <v>63.93393549006194</v>
+        <v>215.8937056438147</v>
       </c>
       <c r="U23" t="n">
         <v>248.7257847673881</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>140.7797256593419</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>176.2921629618317</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>205.4042600535009</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>51.88265746148667</v>
+        <v>51.45688349931771</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24341,7 +24341,7 @@
         <v>228.3956466458399</v>
       </c>
       <c r="U24" t="n">
-        <v>77.0970963189111</v>
+        <v>249.6218126605923</v>
       </c>
       <c r="V24" t="n">
         <v>76.77520883849118</v>
@@ -24366,7 +24366,7 @@
         <v>175.175320970127</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5867821959998</v>
+        <v>156.9689612968463</v>
       </c>
       <c r="D25" t="n">
         <v>141.3987433365328</v>
@@ -24402,7 +24402,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>12.1401288605985</v>
+        <v>20.75794975975202</v>
       </c>
       <c r="P25" t="n">
         <v>47.09271678198189</v>
@@ -24448,7 +24448,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>167.1719854894949</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
         <v>187.4338385946061</v>
@@ -24457,7 +24457,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.3924619573643</v>
+        <v>248.8677456156831</v>
       </c>
       <c r="H26" t="n">
         <v>341.5886229000677</v>
@@ -24499,19 +24499,19 @@
         <v>215.8937056438147</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7257847673881</v>
+        <v>96.76601461363543</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>152.8670091376122</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>176.2921629618317</v>
       </c>
       <c r="Y26" t="n">
-        <v>205.4042600535009</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.05298722728173</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
@@ -24542,7 +24542,7 @@
         <v>133.6778581337648</v>
       </c>
       <c r="I27" t="n">
-        <v>102.4325814732445</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>41.61911875475543</v>
@@ -24572,25 +24572,25 @@
         <v>128.2113769267291</v>
       </c>
       <c r="S27" t="n">
-        <v>27.66534213233345</v>
+        <v>200.1900584740146</v>
       </c>
       <c r="T27" t="n">
-        <v>55.87093030415875</v>
+        <v>228.3956466458399</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6218126605923</v>
+        <v>199.668850017915</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>76.77520883849118</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>57.50834736928178</v>
       </c>
       <c r="Y27" t="n">
-        <v>70.37155007191214</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>168.8808629793834</v>
+        <v>160.2630420802299</v>
       </c>
       <c r="H28" t="n">
         <v>164.4345241038836</v>
@@ -24651,7 +24651,7 @@
         <v>205.1579800054288</v>
       </c>
       <c r="S28" t="n">
-        <v>228.9133216270252</v>
+        <v>237.5311425261787</v>
       </c>
       <c r="T28" t="n">
         <v>216.5761505297352</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.031611255382</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>181.6373493204557</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>146.6070393015664</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>226.6217012316878</v>
       </c>
       <c r="G29" t="n">
-        <v>421.3924619573643</v>
+        <v>248.8677456156831</v>
       </c>
       <c r="H29" t="n">
         <v>341.5886229000677</v>
@@ -24733,7 +24733,7 @@
         <v>217.3083027762501</v>
       </c>
       <c r="T29" t="n">
-        <v>63.93393549006194</v>
+        <v>215.8937056438147</v>
       </c>
       <c r="U29" t="n">
         <v>248.7257847673881</v>
@@ -24742,10 +24742,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>152.8670091376122</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>176.2921629618317</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.05298722728173</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>203.8424276152394</v>
+        <v>51.88265746148667</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
@@ -24812,19 +24812,19 @@
         <v>200.1900584740146</v>
       </c>
       <c r="T30" t="n">
-        <v>228.3956466458399</v>
+        <v>55.87093030415875</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6218126605923</v>
+        <v>77.0970963189111</v>
       </c>
       <c r="V30" t="n">
         <v>76.77520883849118</v>
       </c>
       <c r="W30" t="n">
-        <v>110.7245404212499</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X30" t="n">
-        <v>57.50834736928178</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24864,7 +24864,7 @@
         <v>107.2865423492787</v>
       </c>
       <c r="K31" t="n">
-        <v>46.39190810170894</v>
+        <v>37.77408720255541</v>
       </c>
       <c r="L31" t="n">
         <v>8.457998747094877</v>
@@ -24882,7 +24882,7 @@
         <v>47.09271678198189</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.418476395494</v>
+        <v>122.0362972946476</v>
       </c>
       <c r="R31" t="n">
         <v>205.1579800054288</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>192.031611255382</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>214.224209360993</v>
       </c>
       <c r="D32" t="n">
         <v>146.6070393015664</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>187.4338385946061</v>
       </c>
       <c r="F32" t="n">
         <v>399.146417573369</v>
@@ -24967,13 +24967,13 @@
         <v>160.1525623512377</v>
       </c>
       <c r="S32" t="n">
-        <v>217.3083027762501</v>
+        <v>44.78358643456886</v>
       </c>
       <c r="T32" t="n">
-        <v>43.36898930213346</v>
+        <v>215.8937056438147</v>
       </c>
       <c r="U32" t="n">
-        <v>129.3528746541727</v>
+        <v>248.7257847673881</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15.48804103935325</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
-        <v>31.31771127355819</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>20.13917222575949</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
         <v>187.4605452976028</v>
@@ -25010,7 +25010,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.5932908263777</v>
+        <v>8.633520672625025</v>
       </c>
       <c r="H33" t="n">
         <v>133.6778581337648</v>
@@ -25052,19 +25052,19 @@
         <v>228.3956466458399</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6218126605923</v>
+        <v>77.0970963189111</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>76.77520883849118</v>
       </c>
       <c r="W33" t="n">
-        <v>110.7245404212499</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>70.37155007191214</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>168.8808629793834</v>
+        <v>160.2630420802299</v>
       </c>
       <c r="H34" t="n">
         <v>164.4345241038836</v>
@@ -25113,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>12.1401288605985</v>
+        <v>20.75794975975202</v>
       </c>
       <c r="P34" t="n">
         <v>47.09271678198189</v>
@@ -25165,10 +25165,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>399.146417573369</v>
+        <v>267.4013534697101</v>
       </c>
       <c r="G35" t="n">
-        <v>421.3924619573643</v>
+        <v>248.8677456156831</v>
       </c>
       <c r="H35" t="n">
         <v>341.5886229000677</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>46.40650781837408</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>217.3083027762501</v>
       </c>
       <c r="T35" t="n">
-        <v>102.147651110951</v>
+        <v>215.8937056438147</v>
       </c>
       <c r="U35" t="n">
-        <v>181.1251199753792</v>
+        <v>76.20106842570695</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25219,7 +25219,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>235.0708247706492</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
         <v>377.9289763951821</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>74.26670284817078</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>20.13917222575949</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
@@ -25286,16 +25286,16 @@
         <v>200.1900584740146</v>
       </c>
       <c r="T36" t="n">
-        <v>114.6495921129763</v>
+        <v>228.3956466458399</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6218126605923</v>
+        <v>77.0970963189111</v>
       </c>
       <c r="V36" t="n">
-        <v>149.1124003476261</v>
+        <v>76.77520883849118</v>
       </c>
       <c r="W36" t="n">
-        <v>169.5032022300674</v>
+        <v>110.7245404212499</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25314,7 +25314,7 @@
         <v>175.175320970127</v>
       </c>
       <c r="C37" t="n">
-        <v>165.5867821959998</v>
+        <v>156.9689612968463</v>
       </c>
       <c r="D37" t="n">
         <v>141.3987433365328</v>
@@ -25356,7 +25356,7 @@
         <v>47.09271678198189</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.418476395494</v>
+        <v>122.0362972946476</v>
       </c>
       <c r="R37" t="n">
         <v>205.1579800054288</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>192.031611255382</v>
       </c>
       <c r="C38" t="n">
-        <v>233.4095946416622</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>246.2125004034237</v>
+        <v>187.4338385946061</v>
       </c>
       <c r="F38" t="n">
         <v>399.146417573369</v>
@@ -25438,16 +25438,16 @@
         <v>32.58686004053735</v>
       </c>
       <c r="R38" t="n">
-        <v>160.1525623512377</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.5622482433864</v>
+        <v>217.3083027762501</v>
       </c>
       <c r="T38" t="n">
         <v>215.8937056438147</v>
       </c>
       <c r="U38" t="n">
-        <v>134.9797302345245</v>
+        <v>248.7257847673881</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25456,7 +25456,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>184.4849551593167</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25472,10 +25472,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>90.09637308237572</v>
+        <v>31.31771127355819</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>141.8856048442208</v>
       </c>
       <c r="E39" t="n">
         <v>187.4605452976028</v>
@@ -25484,10 +25484,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.5932908263777</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>133.6778581337648</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>102.4325814732445</v>
@@ -25520,16 +25520,16 @@
         <v>128.2113769267291</v>
       </c>
       <c r="S39" t="n">
-        <v>86.44400394115098</v>
+        <v>200.1900584740146</v>
       </c>
       <c r="T39" t="n">
-        <v>128.2081218132936</v>
+        <v>228.3956466458399</v>
       </c>
       <c r="U39" t="n">
-        <v>135.8757581277286</v>
+        <v>249.6218126605923</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>76.77520883849118</v>
       </c>
       <c r="W39" t="n">
         <v>283.2492567629311</v>
@@ -25551,7 +25551,7 @@
         <v>175.175320970127</v>
       </c>
       <c r="C40" t="n">
-        <v>165.5867821959998</v>
+        <v>156.9689612968463</v>
       </c>
       <c r="D40" t="n">
         <v>141.3987433365328</v>
@@ -25611,7 +25611,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W40" t="n">
-        <v>285.8679742471841</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X40" t="n">
         <v>217.7416213385031</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.4798281447045</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>243.5206200218498</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>359.9585549362873</v>
+        <v>292.3578901442784</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>285.4003630405053</v>
       </c>
       <c r="G41" t="n">
-        <v>421.3924619573643</v>
+        <v>307.6464074245006</v>
       </c>
       <c r="H41" t="n">
         <v>341.5886229000677</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.58686004053735</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>160.1525623512377</v>
@@ -25684,13 +25684,13 @@
         <v>215.8937056438147</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7257847673881</v>
+        <v>134.9797302345245</v>
       </c>
       <c r="V41" t="n">
-        <v>233.9650612833856</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>235.3152260269347</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
@@ -25712,25 +25712,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>82.02244292715355</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>60.23829359246025</v>
       </c>
       <c r="G42" t="n">
-        <v>70.51679137401908</v>
+        <v>46.84723629351407</v>
       </c>
       <c r="H42" t="n">
-        <v>43.60135868140611</v>
+        <v>133.6778581337648</v>
       </c>
       <c r="I42" t="n">
         <v>102.4325814732445</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.61911875475543</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25766,13 +25766,13 @@
         <v>249.6218126605923</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>149.1124003476261</v>
       </c>
       <c r="W42" t="n">
-        <v>245.528994800049</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>116.2870091780993</v>
       </c>
       <c r="Y42" t="n">
         <v>242.8962664135933</v>
@@ -25830,13 +25830,13 @@
         <v>47.09271678198189</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.418476395494</v>
+        <v>122.0362972946476</v>
       </c>
       <c r="R43" t="n">
         <v>205.1579800054288</v>
       </c>
       <c r="S43" t="n">
-        <v>237.5311425261787</v>
+        <v>228.9133216270252</v>
       </c>
       <c r="T43" t="n">
         <v>216.5761505297352</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>250.8102730641995</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25876,10 +25876,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>309.0699181210103</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>331.3159625050056</v>
+        <v>421.3924619573643</v>
       </c>
       <c r="H44" t="n">
         <v>341.5886229000677</v>
@@ -25888,7 +25888,7 @@
         <v>222.9010234321688</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>34.28241514086179</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>32.58686004053735</v>
       </c>
       <c r="R44" t="n">
         <v>160.1525623512377</v>
       </c>
       <c r="S44" t="n">
-        <v>217.3083027762501</v>
+        <v>117.1207779437038</v>
       </c>
       <c r="T44" t="n">
         <v>215.8937056438147</v>
       </c>
       <c r="U44" t="n">
-        <v>158.6492853150295</v>
+        <v>134.9797302345245</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W44" t="n">
-        <v>312.921619943055</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X44" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>264.1829218623185</v>
       </c>
     </row>
     <row r="45">
@@ -25952,16 +25952,16 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>97.38404584524417</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>94.64496740768638</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
         <v>160.5932908263777</v>
       </c>
       <c r="H45" t="n">
-        <v>43.60135868140611</v>
+        <v>133.6778581337648</v>
       </c>
       <c r="I45" t="n">
         <v>102.4325814732445</v>
@@ -25997,16 +25997,16 @@
         <v>200.1900584740146</v>
       </c>
       <c r="T45" t="n">
-        <v>228.3956466458399</v>
+        <v>114.6495921129763</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6218126605923</v>
+        <v>135.8757581277286</v>
       </c>
       <c r="V45" t="n">
-        <v>159.2234257278137</v>
+        <v>149.1124003476261</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>169.5032022300674</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26031,7 +26031,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E46" t="n">
-        <v>136.4317244039137</v>
+        <v>127.8139035047602</v>
       </c>
       <c r="F46" t="n">
         <v>131.7685403657761</v>
@@ -26055,7 +26055,7 @@
         <v>8.457998747094877</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.231655265615188</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W46" t="n">
-        <v>288.0996295127993</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X46" t="n">
         <v>217.7416213385031</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1024174.434863331</v>
+        <v>1024169.757810057</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1023971.098824927</v>
+        <v>1024210.274387984</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1022996.401965218</v>
+        <v>1023589.588883797</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406646.8086901786</v>
+        <v>421282.0478514147</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406646.8086901788</v>
+        <v>421282.0478514147</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421282.0478514147</v>
+        <v>458311.1308833701</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421282.0478514147</v>
+        <v>458311.1308833701</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>458311.1308833702</v>
+        <v>458311.1308833701</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421282.0478514149</v>
+        <v>458311.1308833702</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>421282.0478514148</v>
+        <v>458311.1308833701</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406646.8086901787</v>
+        <v>421282.0478514148</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406646.8086901788</v>
+        <v>421282.0478514147</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>665652.4879734385</v>
+        <v>665649.3699379225</v>
       </c>
       <c r="C2" t="n">
-        <v>665685.0404821426</v>
+        <v>665676.3809898734</v>
       </c>
       <c r="D2" t="n">
-        <v>665700.3147586313</v>
+        <v>665691.8544687915</v>
       </c>
       <c r="E2" t="n">
-        <v>263087.7211671673</v>
+        <v>270932.2926862059</v>
       </c>
       <c r="F2" t="n">
-        <v>263087.7211671673</v>
+        <v>270932.2926862059</v>
       </c>
       <c r="G2" t="n">
-        <v>270932.2926862059</v>
+        <v>290412.735592056</v>
       </c>
       <c r="H2" t="n">
-        <v>270932.2926862059</v>
+        <v>290412.735592056</v>
       </c>
       <c r="I2" t="n">
+        <v>290412.735592056</v>
+      </c>
+      <c r="J2" t="n">
         <v>290412.7355920561</v>
-      </c>
-      <c r="J2" t="n">
-        <v>290412.735592056</v>
       </c>
       <c r="K2" t="n">
         <v>290412.7355920561</v>
@@ -26346,16 +26346,16 @@
         <v>290412.7355920561</v>
       </c>
       <c r="M2" t="n">
+        <v>290412.7355920561</v>
+      </c>
+      <c r="N2" t="n">
+        <v>290412.735592056</v>
+      </c>
+      <c r="O2" t="n">
         <v>270932.2926862059</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>270932.2926862059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263087.7211671673</v>
-      </c>
-      <c r="P2" t="n">
-        <v>263087.7211671674</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13413.30159737152</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132332.0514777284</v>
+        <v>109804.9907538225</v>
       </c>
       <c r="D3" t="n">
-        <v>58397.78671595162</v>
+        <v>59159.39274055031</v>
       </c>
       <c r="E3" t="n">
-        <v>283389.6799488957</v>
+        <v>320800.7376422813</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6487.470004240216</v>
+        <v>16110.34952186976</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15630.48052686257</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7799.546332121024</v>
+        <v>28345.97177380776</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510270.3307033973</v>
+        <v>515122.0500390192</v>
       </c>
       <c r="C4" t="n">
-        <v>459889.2491983908</v>
+        <v>473092.3674555962</v>
       </c>
       <c r="D4" t="n">
-        <v>437195.1445989073</v>
+        <v>449707.8765586365</v>
       </c>
       <c r="E4" t="n">
-        <v>12080.81345756176</v>
+        <v>14966.34644330313</v>
       </c>
       <c r="F4" t="n">
-        <v>12080.81345756177</v>
+        <v>14966.34644330312</v>
       </c>
       <c r="G4" t="n">
-        <v>14966.34644330312</v>
+        <v>22817.35649106435</v>
       </c>
       <c r="H4" t="n">
-        <v>14966.34644330312</v>
+        <v>22817.35649106435</v>
       </c>
       <c r="I4" t="n">
         <v>22817.35649106435</v>
@@ -26450,16 +26450,16 @@
         <v>22817.35649106435</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.35649106435</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22817.35649106435</v>
+      </c>
+      <c r="O4" t="n">
         <v>14966.34644330312</v>
       </c>
-      <c r="N4" t="n">
-        <v>14966.34644330311</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12080.81345756176</v>
-      </c>
       <c r="P4" t="n">
-        <v>12080.81345756176</v>
+        <v>14966.34644330312</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33931.05167076689</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>37099.10832143807</v>
+        <v>36256.35416310675</v>
       </c>
       <c r="D5" t="n">
-        <v>38585.62272966557</v>
+        <v>37762.25523635402</v>
       </c>
       <c r="E5" t="n">
-        <v>17394.55212923583</v>
+        <v>18833.66107813053</v>
       </c>
       <c r="F5" t="n">
-        <v>17394.55212923582</v>
+        <v>18833.66107813053</v>
       </c>
       <c r="G5" t="n">
-        <v>18833.66107813053</v>
+        <v>22407.40371610664</v>
       </c>
       <c r="H5" t="n">
-        <v>18833.66107813053</v>
+        <v>22407.40371610664</v>
       </c>
       <c r="I5" t="n">
         <v>22407.40371610664</v>
@@ -26502,16 +26502,16 @@
         <v>22407.40371610664</v>
       </c>
       <c r="M5" t="n">
+        <v>22407.40371610664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>22407.40371610664</v>
+      </c>
+      <c r="O5" t="n">
         <v>18833.66107813053</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>18833.66107813053</v>
-      </c>
-      <c r="O5" t="n">
-        <v>17394.55212923583</v>
-      </c>
-      <c r="P5" t="n">
-        <v>17394.55212923583</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108037.8040019028</v>
+        <v>116852.7753579705</v>
       </c>
       <c r="C6" t="n">
-        <v>36364.63148458541</v>
+        <v>46476.68875684207</v>
       </c>
       <c r="D6" t="n">
-        <v>131521.7607141068</v>
+        <v>119016.9026969917</v>
       </c>
       <c r="E6" t="n">
-        <v>-49777.32436852599</v>
+        <v>-97812.43549171738</v>
       </c>
       <c r="F6" t="n">
-        <v>233612.3555803697</v>
+        <v>222988.3021505639</v>
       </c>
       <c r="G6" t="n">
-        <v>230644.815160532</v>
+        <v>215629.3729525873</v>
       </c>
       <c r="H6" t="n">
-        <v>237132.2851647723</v>
+        <v>231739.722474457</v>
       </c>
       <c r="I6" t="n">
-        <v>229557.4948580225</v>
+        <v>231739.722474457</v>
       </c>
       <c r="J6" t="n">
-        <v>245187.975384885</v>
+        <v>231739.7224744571</v>
       </c>
       <c r="K6" t="n">
-        <v>245187.9753848851</v>
+        <v>231739.7224744571</v>
       </c>
       <c r="L6" t="n">
-        <v>245187.9753848852</v>
+        <v>231739.7224744571</v>
       </c>
       <c r="M6" t="n">
-        <v>229332.7388326512</v>
+        <v>203393.7507006493</v>
       </c>
       <c r="N6" t="n">
-        <v>237132.2851647723</v>
+        <v>231739.722474457</v>
       </c>
       <c r="O6" t="n">
-        <v>233612.3555803697</v>
+        <v>222988.3021505639</v>
       </c>
       <c r="P6" t="n">
-        <v>233612.3555803698</v>
+        <v>222988.3021505639</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.91980141132541</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>159.2435009833979</v>
+        <v>120.5850533535205</v>
       </c>
       <c r="D3" t="n">
-        <v>227.4322353057602</v>
+        <v>189.6630842364233</v>
       </c>
       <c r="E3" t="n">
+        <v>546.692704703322</v>
+      </c>
+      <c r="F3" t="n">
         <v>546.6927047033221</v>
-      </c>
-      <c r="F3" t="n">
-        <v>546.692704703322</v>
       </c>
       <c r="G3" t="n">
         <v>546.6927047033221</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="F4" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="G4" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="H4" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="I4" t="n">
         <v>172.5247163416812</v>
@@ -26822,16 +26822,16 @@
         <v>172.5247163416812</v>
       </c>
       <c r="M4" t="n">
+        <v>172.5247163416812</v>
+      </c>
+      <c r="N4" t="n">
+        <v>172.5247163416812</v>
+      </c>
+      <c r="O4" t="n">
         <v>113.7460545328637</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>113.7460545328637</v>
-      </c>
-      <c r="O4" t="n">
-        <v>90.07649945235866</v>
-      </c>
-      <c r="P4" t="n">
-        <v>90.07649945235866</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.91980141132541</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.3236995720725</v>
+        <v>120.5850533535205</v>
       </c>
       <c r="D3" t="n">
-        <v>68.18873432236234</v>
+        <v>69.07803088290279</v>
       </c>
       <c r="E3" t="n">
-        <v>319.2604693975618</v>
+        <v>357.0296204668988</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.66955508050501</v>
+        <v>58.77866180881753</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.77866180881753</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31.29783764354113</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.66955508050501</v>
+        <v>58.77866180881753</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27396,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>363.5233384612302</v>
+        <v>364.0964285766221</v>
       </c>
       <c r="I2" t="n">
-        <v>305.4727916901173</v>
+        <v>307.6301510626203</v>
       </c>
       <c r="J2" t="n">
-        <v>216.0650651942451</v>
+        <v>220.8145154255395</v>
       </c>
       <c r="K2" t="n">
-        <v>230.4854051560339</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L2" t="n">
-        <v>227.3857161156441</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M2" t="n">
-        <v>210.1819365141212</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N2" t="n">
-        <v>211.821500779677</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O2" t="n">
-        <v>228.0821250053806</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P2" t="n">
-        <v>246.4636179254847</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q2" t="n">
-        <v>263.8772313385217</v>
+        <v>269.9201738698072</v>
       </c>
       <c r="R2" t="n">
-        <v>294.6924453117036</v>
+        <v>298.2075798861928</v>
       </c>
       <c r="S2" t="n">
-        <v>266.1145843190295</v>
+        <v>267.3897500463082</v>
       </c>
       <c r="T2" t="n">
-        <v>225.2694378414457</v>
+        <v>225.5143983667847</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8971288166881</v>
+        <v>248.90160553674</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27472,49 +27472,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.7392551844021</v>
+        <v>161.7691958893245</v>
       </c>
       <c r="H3" t="n">
-        <v>144.7454612757363</v>
+        <v>145.0346254522244</v>
       </c>
       <c r="I3" t="n">
-        <v>141.8879332736424</v>
+        <v>142.9187864913679</v>
       </c>
       <c r="J3" t="n">
-        <v>149.8876197907262</v>
+        <v>152.7163598114938</v>
       </c>
       <c r="K3" t="n">
-        <v>127.9973756261563</v>
+        <v>132.8321428767296</v>
       </c>
       <c r="L3" t="n">
-        <v>99.71634943343393</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M3" t="n">
-        <v>79.20141626677949</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N3" t="n">
-        <v>59.67115825396441</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O3" t="n">
-        <v>99.01914913748267</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P3" t="n">
-        <v>107.4198895456943</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.2813450699082</v>
+        <v>150.1032497894857</v>
       </c>
       <c r="R3" t="n">
-        <v>199.3616903135358</v>
+        <v>201.2206403963539</v>
       </c>
       <c r="S3" t="n">
-        <v>221.4758438083694</v>
+        <v>222.0319792704162</v>
       </c>
       <c r="T3" t="n">
-        <v>233.0146871941922</v>
+        <v>233.1353692460508</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6972050525676</v>
+        <v>249.6991748357862</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27551,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.8416010017133</v>
+        <v>169.8667022829468</v>
       </c>
       <c r="H4" t="n">
-        <v>172.9763585205979</v>
+        <v>173.1995317301106</v>
       </c>
       <c r="I4" t="n">
-        <v>185.9962813448375</v>
+        <v>186.7511453295697</v>
       </c>
       <c r="J4" t="n">
-        <v>175.2107205279977</v>
+        <v>176.9853811112088</v>
       </c>
       <c r="K4" t="n">
-        <v>158.0121983323928</v>
+        <v>160.9285108247983</v>
       </c>
       <c r="L4" t="n">
-        <v>151.2935407214771</v>
+        <v>155.0254166605068</v>
       </c>
       <c r="M4" t="n">
-        <v>152.8317072568266</v>
+        <v>156.7664471869165</v>
       </c>
       <c r="N4" t="n">
-        <v>138.2263217917149</v>
+        <v>142.0675024008435</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5539022250629</v>
+        <v>160.1018542306906</v>
       </c>
       <c r="P4" t="n">
-        <v>163.2896135917642</v>
+        <v>166.3254994602277</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.485005691739</v>
+        <v>204.5868957048492</v>
       </c>
       <c r="R4" t="n">
-        <v>248.3562550821864</v>
+        <v>249.4848999638325</v>
       </c>
       <c r="S4" t="n">
-        <v>254.2741860607813</v>
+        <v>254.7116329346421</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6811220796899</v>
+        <v>220.7883730085969</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2527010560889</v>
+        <v>291.2540702168835</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -27633,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>357.5402376039739</v>
+        <v>359.1318389177005</v>
       </c>
       <c r="I5" t="n">
-        <v>282.9498090659873</v>
+        <v>288.9412856579506</v>
       </c>
       <c r="J5" t="n">
-        <v>166.4804728462846</v>
+        <v>179.6707740303099</v>
       </c>
       <c r="K5" t="n">
-        <v>156.1709547060198</v>
+        <v>175.9397969480259</v>
       </c>
       <c r="L5" t="n">
-        <v>135.1920689991825</v>
+        <v>159.717065880999</v>
       </c>
       <c r="M5" t="n">
-        <v>107.598740283027</v>
+        <v>134.8875247750459</v>
       </c>
       <c r="N5" t="n">
-        <v>107.578401186134</v>
+        <v>135.3087467407796</v>
       </c>
       <c r="O5" t="n">
-        <v>129.6483220454851</v>
+        <v>155.8333010127153</v>
       </c>
       <c r="P5" t="n">
-        <v>162.452644445732</v>
+        <v>184.8009181833638</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.7884889780648</v>
+        <v>217.5711118383298</v>
       </c>
       <c r="R5" t="n">
-        <v>257.9941946855963</v>
+        <v>267.7565211616979</v>
       </c>
       <c r="S5" t="n">
-        <v>252.8017650064723</v>
+        <v>256.3431896310585</v>
       </c>
       <c r="T5" t="n">
-        <v>222.712032836916</v>
+        <v>223.3923438097795</v>
       </c>
       <c r="U5" t="n">
-        <v>248.850391546474</v>
+        <v>248.8628244140534</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -27709,49 +27709,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.4266721324923</v>
+        <v>161.5098242651302</v>
       </c>
       <c r="H6" t="n">
-        <v>141.7265670638711</v>
+        <v>142.5296416080314</v>
       </c>
       <c r="I6" t="n">
-        <v>131.1257536355219</v>
+        <v>133.9886669741497</v>
       </c>
       <c r="J6" t="n">
-        <v>120.3553762767449</v>
+        <v>128.2114292993411</v>
       </c>
       <c r="K6" t="n">
-        <v>77.5220676342224</v>
+        <v>90.94931354355442</v>
       </c>
       <c r="L6" t="n">
-        <v>31.84606879838253</v>
+        <v>49.90065794854366</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>21.06885395828317</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.64768941402779</v>
+        <v>44.43169704212175</v>
       </c>
       <c r="P6" t="n">
-        <v>47.73023641391228</v>
+        <v>63.60864672438022</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.3803926892894</v>
+        <v>116.9946894800436</v>
       </c>
       <c r="R6" t="n">
-        <v>179.9541215291748</v>
+        <v>185.1168477994441</v>
       </c>
       <c r="S6" t="n">
-        <v>215.6697507169758</v>
+        <v>217.2142651104902</v>
       </c>
       <c r="T6" t="n">
-        <v>231.7547581384684</v>
+        <v>232.0899195853727</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6766403780998</v>
+        <v>249.6821109131418</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -27788,49 +27788,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.5795418713374</v>
+        <v>169.6492538260798</v>
       </c>
       <c r="H7" t="n">
-        <v>170.6464146159834</v>
+        <v>171.2662172681476</v>
       </c>
       <c r="I7" t="n">
-        <v>178.115448587716</v>
+        <v>180.2118771903329</v>
       </c>
       <c r="J7" t="n">
-        <v>156.6831400104238</v>
+        <v>161.6117752107116</v>
       </c>
       <c r="K7" t="n">
-        <v>127.5656920941783</v>
+        <v>135.6649537451591</v>
       </c>
       <c r="L7" t="n">
-        <v>112.3324951017775</v>
+        <v>122.6967615368433</v>
       </c>
       <c r="M7" t="n">
-        <v>111.7527473925439</v>
+        <v>122.6804131709369</v>
       </c>
       <c r="N7" t="n">
-        <v>98.12412777701496</v>
+        <v>108.7919580877318</v>
       </c>
       <c r="O7" t="n">
-        <v>119.5130353242993</v>
+        <v>129.3665032546162</v>
       </c>
       <c r="P7" t="n">
-        <v>131.5947529506683</v>
+        <v>140.0260970042402</v>
       </c>
       <c r="Q7" t="n">
-        <v>180.5411270563561</v>
+        <v>186.3785526484676</v>
       </c>
       <c r="R7" t="n">
-        <v>236.5731236381951</v>
+        <v>239.7076266214307</v>
       </c>
       <c r="S7" t="n">
-        <v>249.7072101250491</v>
+        <v>250.9220993726962</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5614148862658</v>
+        <v>219.8592750565288</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2384069217048</v>
+        <v>291.2422093919635</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -27870,46 +27870,46 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>354.7328491602397</v>
+        <v>356.2878373748682</v>
       </c>
       <c r="I8" t="n">
-        <v>272.3815832168904</v>
+        <v>278.2352322484506</v>
       </c>
       <c r="J8" t="n">
-        <v>143.2144081641032</v>
+        <v>156.1012804679068</v>
       </c>
       <c r="K8" t="n">
-        <v>121.3011548525195</v>
+        <v>140.6152358588961</v>
       </c>
       <c r="L8" t="n">
-        <v>91.93299888229322</v>
+        <v>115.8938242385722</v>
       </c>
       <c r="M8" t="n">
-        <v>59.46468964752347</v>
+        <v>86.12572461316654</v>
       </c>
       <c r="N8" t="n">
-        <v>58.66549128874738</v>
+        <v>85.75792967338845</v>
       </c>
       <c r="O8" t="n">
-        <v>83.46124823621099</v>
+        <v>109.0438695517235</v>
       </c>
       <c r="P8" t="n">
-        <v>123.0330455252351</v>
+        <v>144.8672209431627</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.1860118582497</v>
+        <v>187.5825682905668</v>
       </c>
       <c r="R8" t="n">
-        <v>240.7746546559397</v>
+        <v>250.3124091719567</v>
       </c>
       <c r="S8" t="n">
-        <v>246.5551286914136</v>
+        <v>250.0150866009313</v>
       </c>
       <c r="T8" t="n">
-        <v>221.512048175625</v>
+        <v>222.1767093165537</v>
       </c>
       <c r="U8" t="n">
-        <v>248.8284615012647</v>
+        <v>248.8406083639202</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -27946,22 +27946,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.2800020247046</v>
+        <v>161.3612413307783</v>
       </c>
       <c r="H9" t="n">
-        <v>140.310042601816</v>
+        <v>141.0946432683696</v>
       </c>
       <c r="I9" t="n">
-        <v>126.0759275559885</v>
+        <v>128.8729826115951</v>
       </c>
       <c r="J9" t="n">
-        <v>106.4982675405373</v>
+        <v>114.1736004007693</v>
       </c>
       <c r="K9" t="n">
-        <v>53.83806167623734</v>
+        <v>66.95642804340507</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>17.63926248761817</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -27970,25 +27970,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.080037218491299</v>
       </c>
       <c r="P9" t="n">
-        <v>19.7226787259216</v>
+        <v>35.23582305853284</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.65808208817585</v>
+        <v>98.02820824593039</v>
       </c>
       <c r="R9" t="n">
-        <v>170.8477090474073</v>
+        <v>175.8916722788935</v>
       </c>
       <c r="S9" t="n">
-        <v>212.9454177938134</v>
+        <v>214.4544022728572</v>
       </c>
       <c r="T9" t="n">
-        <v>231.1635746776924</v>
+        <v>231.4910260912086</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6669910289033</v>
+        <v>249.6723357200923</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -28025,49 +28025,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.4565785799364</v>
+        <v>169.5246868851434</v>
       </c>
       <c r="H10" t="n">
-        <v>169.5531591706183</v>
+        <v>170.1587039205496</v>
       </c>
       <c r="I10" t="n">
-        <v>174.4176070608574</v>
+        <v>176.4658095483552</v>
       </c>
       <c r="J10" t="n">
-        <v>147.9896353083744</v>
+        <v>152.8048924865094</v>
       </c>
       <c r="K10" t="n">
-        <v>113.2795933295915</v>
+        <v>121.1925400618231</v>
       </c>
       <c r="L10" t="n">
-        <v>94.05120721476251</v>
+        <v>104.1770546998107</v>
       </c>
       <c r="M10" t="n">
-        <v>92.47769254138827</v>
+        <v>103.1539789657912</v>
       </c>
       <c r="N10" t="n">
-        <v>79.30739064835389</v>
+        <v>89.72981884425798</v>
       </c>
       <c r="O10" t="n">
-        <v>102.1327330088224</v>
+        <v>111.7595323666265</v>
       </c>
       <c r="P10" t="n">
-        <v>116.7229017797714</v>
+        <v>124.9602917113527</v>
       </c>
       <c r="Q10" t="n">
-        <v>170.2446281736794</v>
+        <v>175.9477699851493</v>
       </c>
       <c r="R10" t="n">
-        <v>231.0442469175655</v>
+        <v>234.1066439862366</v>
       </c>
       <c r="S10" t="n">
-        <v>247.5642953103611</v>
+        <v>248.7512373201959</v>
       </c>
       <c r="T10" t="n">
-        <v>219.0360262775525</v>
+        <v>219.3270344907097</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2316998330829</v>
+        <v>291.2354148315488</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05595900064854432</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5730901153919046</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.157359372503007</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.749450231294392</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.118194728747275</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.830749994845165</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.825910872628715</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.984904383221391</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.428462070522428</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.046974242011489</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.042942531285494</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.515134574489125</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.275165727278705</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2449605253390029</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004476720051883544</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02994070492247352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2891641764880996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.030853217725514</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.828740020767554</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.83476725057328</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.500941215732683</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7.586291769172347</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.787078338586656</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.123655350567637</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.717361451380054</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.821904719577498</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.858950082818137</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5561354620468214</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1206820518585665</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001969783218583785</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02510128123353762</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2231732095127255</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7548639847322043</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.77466058321111</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.916312492405552</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.731875939029766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.934739930089901</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.841180609128537</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.547952005627664</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.035885868463494</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.101890013110137</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.128644881646155</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4374468738608328</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1072509289069334</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001369160794556599</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6401748783252171</v>
+        <v>0.4847640335819916</v>
       </c>
       <c r="H5" t="n">
-        <v>6.556190972648132</v>
+        <v>4.964589658921573</v>
       </c>
       <c r="I5" t="n">
-        <v>24.68034199663296</v>
+        <v>18.68886540466975</v>
       </c>
       <c r="J5" t="n">
-        <v>54.33404257925495</v>
+        <v>41.1437413952296</v>
       </c>
       <c r="K5" t="n">
-        <v>81.4326451787614</v>
+        <v>61.66380293675531</v>
       </c>
       <c r="L5" t="n">
-        <v>101.0243971113068</v>
+        <v>76.49940022949021</v>
       </c>
       <c r="M5" t="n">
-        <v>112.4091071037229</v>
+        <v>85.12032261170395</v>
       </c>
       <c r="N5" t="n">
-        <v>114.2280039767644</v>
+        <v>86.49765842211877</v>
       </c>
       <c r="O5" t="n">
-        <v>107.862265030418</v>
+        <v>81.67728606318785</v>
       </c>
       <c r="P5" t="n">
-        <v>92.05794772176419</v>
+        <v>69.70967398413242</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.13168489174234</v>
+        <v>52.34906203147732</v>
       </c>
       <c r="R5" t="n">
-        <v>40.21338520059646</v>
+        <v>30.4510587244948</v>
       </c>
       <c r="S5" t="n">
-        <v>14.5879850398359</v>
+        <v>11.04656041524964</v>
       </c>
       <c r="T5" t="n">
-        <v>2.802365529868639</v>
+        <v>2.122054557005169</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05121399026601737</v>
+        <v>0.03878112268655932</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3425237568322143</v>
+        <v>0.2593716241943649</v>
       </c>
       <c r="H6" t="n">
-        <v>3.308058388353229</v>
+        <v>2.504983844192945</v>
       </c>
       <c r="I6" t="n">
-        <v>11.79303285584598</v>
+        <v>8.930119517218264</v>
       </c>
       <c r="J6" t="n">
-        <v>32.36098353474882</v>
+        <v>24.50493051215269</v>
       </c>
       <c r="K6" t="n">
-        <v>55.31007524250717</v>
+        <v>41.88282933317514</v>
       </c>
       <c r="L6" t="n">
-        <v>74.37122185078408</v>
+        <v>56.31663270062295</v>
       </c>
       <c r="M6" t="n">
-        <v>86.78770803595184</v>
+        <v>65.71885407766867</v>
       </c>
       <c r="N6" t="n">
-        <v>89.08472042277842</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O6" t="n">
-        <v>81.49511507402251</v>
+        <v>61.71110744592855</v>
       </c>
       <c r="P6" t="n">
-        <v>65.40701458316205</v>
+        <v>49.52860427269411</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.72285710019634</v>
+        <v>33.10856030944208</v>
       </c>
       <c r="R6" t="n">
-        <v>21.26651886717907</v>
+        <v>16.10379259690978</v>
       </c>
       <c r="S6" t="n">
-        <v>6.362228553440469</v>
+        <v>4.817714159926028</v>
       </c>
       <c r="T6" t="n">
-        <v>1.380611107582478</v>
+        <v>1.045449660678163</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0225344576863299</v>
+        <v>0.01706392264436611</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.287160411609406</v>
+        <v>0.2174484568670041</v>
       </c>
       <c r="H7" t="n">
-        <v>2.553117114127266</v>
+        <v>1.933314461963002</v>
       </c>
       <c r="I7" t="n">
-        <v>8.635696741853776</v>
+        <v>6.539268139236817</v>
       </c>
       <c r="J7" t="n">
-        <v>20.302241100785</v>
+        <v>15.37360590049719</v>
       </c>
       <c r="K7" t="n">
-        <v>33.36281873062007</v>
+        <v>25.26355707963921</v>
       </c>
       <c r="L7" t="n">
-        <v>42.69292155872933</v>
+        <v>32.32865512366352</v>
       </c>
       <c r="M7" t="n">
-        <v>45.01369979437261</v>
+        <v>34.08603401597956</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9433746238285</v>
+        <v>33.27554431311167</v>
       </c>
       <c r="O7" t="n">
-        <v>40.58881890639133</v>
+        <v>30.73535097607438</v>
       </c>
       <c r="P7" t="n">
-        <v>34.73074650955942</v>
+        <v>26.29940245598748</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.04576864849308</v>
+        <v>18.2083430563816</v>
       </c>
       <c r="R7" t="n">
-        <v>12.91177632563747</v>
+        <v>9.777273342401839</v>
       </c>
       <c r="S7" t="n">
-        <v>5.00442280959301</v>
+        <v>3.78953356194588</v>
       </c>
       <c r="T7" t="n">
-        <v>1.226958122331098</v>
+        <v>0.9290979520681084</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01566329517869489</v>
+        <v>0.01186082492001842</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9143004434402414</v>
+        <v>0.7624646602469272</v>
       </c>
       <c r="H8" t="n">
-        <v>9.363579416382375</v>
+        <v>7.808591201753845</v>
       </c>
       <c r="I8" t="n">
-        <v>35.24856784572994</v>
+        <v>29.39491881416969</v>
       </c>
       <c r="J8" t="n">
-        <v>77.60010726143626</v>
+        <v>64.71323495763269</v>
       </c>
       <c r="K8" t="n">
-        <v>116.3024450322617</v>
+        <v>96.98836402588515</v>
       </c>
       <c r="L8" t="n">
-        <v>144.283467228196</v>
+        <v>120.3226418719171</v>
       </c>
       <c r="M8" t="n">
-        <v>160.5431577392264</v>
+        <v>133.8821227735833</v>
       </c>
       <c r="N8" t="n">
-        <v>163.140913874151</v>
+        <v>136.0484754895099</v>
       </c>
       <c r="O8" t="n">
-        <v>154.0493388396921</v>
+        <v>128.4667175241796</v>
       </c>
       <c r="P8" t="n">
-        <v>131.4775466422611</v>
+        <v>109.6433712243335</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.73416201155744</v>
+        <v>82.33760557924042</v>
       </c>
       <c r="R8" t="n">
-        <v>57.43292523025312</v>
+        <v>47.89517071423609</v>
       </c>
       <c r="S8" t="n">
-        <v>20.83462135489452</v>
+        <v>17.37466344537687</v>
       </c>
       <c r="T8" t="n">
-        <v>4.002350191159659</v>
+        <v>3.337689050230926</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0731440354752193</v>
+        <v>0.06099717281975416</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4891938646199371</v>
+        <v>0.407954558546269</v>
       </c>
       <c r="H9" t="n">
-        <v>4.724582850408341</v>
+        <v>3.939982183854756</v>
       </c>
       <c r="I9" t="n">
-        <v>16.84285893537941</v>
+        <v>14.04580387977286</v>
       </c>
       <c r="J9" t="n">
-        <v>46.21809227095643</v>
+        <v>38.54275941072448</v>
       </c>
       <c r="K9" t="n">
-        <v>78.99408120049222</v>
+        <v>65.87571483332449</v>
       </c>
       <c r="L9" t="n">
-        <v>106.2172906491666</v>
+        <v>88.57802816154845</v>
       </c>
       <c r="M9" t="n">
-        <v>123.9505682416393</v>
+        <v>103.3663809088507</v>
       </c>
       <c r="N9" t="n">
-        <v>127.2311709565686</v>
+        <v>106.1021814352421</v>
       </c>
       <c r="O9" t="n">
-        <v>116.3916647984111</v>
+        <v>97.062767269559</v>
       </c>
       <c r="P9" t="n">
-        <v>93.41457227115274</v>
+        <v>77.90142793854149</v>
       </c>
       <c r="Q9" t="n">
-        <v>62.44516770130987</v>
+        <v>52.07504154355532</v>
       </c>
       <c r="R9" t="n">
-        <v>30.37293134894663</v>
+        <v>25.32896811746046</v>
       </c>
       <c r="S9" t="n">
-        <v>9.086561476602773</v>
+        <v>7.577576997558982</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97179456835843</v>
+        <v>1.644343154842198</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03218380688289061</v>
+        <v>0.02683911569383349</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4101237030103873</v>
+        <v>0.3420153978033862</v>
       </c>
       <c r="H10" t="n">
-        <v>3.646372559492355</v>
+        <v>3.040827809561018</v>
       </c>
       <c r="I10" t="n">
-        <v>12.33353826871238</v>
+        <v>10.28533578121456</v>
       </c>
       <c r="J10" t="n">
-        <v>28.99574580283438</v>
+        <v>24.1804886246994</v>
       </c>
       <c r="K10" t="n">
-        <v>47.6489174952068</v>
+        <v>39.73597076297523</v>
       </c>
       <c r="L10" t="n">
-        <v>60.97420944574431</v>
+        <v>50.84836196069617</v>
       </c>
       <c r="M10" t="n">
-        <v>64.28875464552824</v>
+        <v>53.61246822112535</v>
       </c>
       <c r="N10" t="n">
-        <v>62.76011175248958</v>
+        <v>52.3376835565855</v>
       </c>
       <c r="O10" t="n">
-        <v>57.96912122186821</v>
+        <v>48.3423218640641</v>
       </c>
       <c r="P10" t="n">
-        <v>49.60259768045627</v>
+        <v>41.36520774887499</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.3422675311698</v>
+        <v>28.63912571969992</v>
       </c>
       <c r="R10" t="n">
-        <v>18.44065304626704</v>
+        <v>15.37825597759589</v>
       </c>
       <c r="S10" t="n">
-        <v>7.147337624281019</v>
+        <v>5.960395614446283</v>
       </c>
       <c r="T10" t="n">
-        <v>1.752346731044381</v>
+        <v>1.461338517887195</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0223703838005666</v>
+        <v>0.01865538533473018</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.197759616897776</v>
+        <v>2.197759616897775</v>
       </c>
       <c r="H11" t="n">
-        <v>22.50780567655435</v>
+        <v>22.50780567655434</v>
       </c>
       <c r="I11" t="n">
-        <v>84.72912763045157</v>
+        <v>84.72912763045156</v>
       </c>
       <c r="J11" t="n">
         <v>186.5321002846777</v>
@@ -31767,19 +31767,19 @@
         <v>279.5632648679606</v>
       </c>
       <c r="L11" t="n">
-        <v>346.822950743596</v>
+        <v>346.8229507435959</v>
       </c>
       <c r="M11" t="n">
-        <v>385.9073583306018</v>
+        <v>385.9073583306017</v>
       </c>
       <c r="N11" t="n">
         <v>392.1517428421126</v>
       </c>
       <c r="O11" t="n">
-        <v>370.2977706515854</v>
+        <v>370.2977706515853</v>
       </c>
       <c r="P11" t="n">
-        <v>316.0405801094215</v>
+        <v>316.0405801094214</v>
       </c>
       <c r="Q11" t="n">
         <v>237.3333138292698</v>
@@ -31788,10 +31788,10 @@
         <v>138.055017534955</v>
       </c>
       <c r="S11" t="n">
-        <v>50.08144727005811</v>
+        <v>50.0814472700581</v>
       </c>
       <c r="T11" t="n">
-        <v>9.620692722970018</v>
+        <v>9.620692722970015</v>
       </c>
       <c r="U11" t="n">
         <v>0.175820769351822</v>
@@ -31837,7 +31837,7 @@
         <v>11.35676731845958</v>
       </c>
       <c r="I12" t="n">
-        <v>40.48620501812339</v>
+        <v>40.48620501812338</v>
       </c>
       <c r="J12" t="n">
         <v>111.0972410567383</v>
@@ -31849,31 +31849,31 @@
         <v>255.3209655314902</v>
       </c>
       <c r="M12" t="n">
-        <v>297.9475240633105</v>
+        <v>297.9475240633104</v>
       </c>
       <c r="N12" t="n">
-        <v>282.1637533742336</v>
+        <v>305.8333084547386</v>
       </c>
       <c r="O12" t="n">
         <v>279.7777278494444</v>
       </c>
       <c r="P12" t="n">
-        <v>224.5462922393702</v>
+        <v>224.5462922393701</v>
       </c>
       <c r="Q12" t="n">
         <v>150.1032497894857</v>
       </c>
       <c r="R12" t="n">
-        <v>73.00926346962481</v>
+        <v>73.0092634696248</v>
       </c>
       <c r="S12" t="n">
         <v>21.84192079640158</v>
       </c>
       <c r="T12" t="n">
-        <v>4.739722600210875</v>
+        <v>4.739722600210874</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07736217519386636</v>
+        <v>0.07736217519386634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9858393035633676</v>
+        <v>0.9858393035633674</v>
       </c>
       <c r="H13" t="n">
-        <v>8.765007626227039</v>
+        <v>8.765007626227037</v>
       </c>
       <c r="I13" t="n">
         <v>29.64687651079655</v>
       </c>
       <c r="J13" t="n">
-        <v>69.69883876193008</v>
+        <v>69.69883876193006</v>
       </c>
       <c r="K13" t="n">
         <v>114.5366027230894</v>
       </c>
       <c r="L13" t="n">
-        <v>146.567417913412</v>
+        <v>146.5674179134119</v>
       </c>
       <c r="M13" t="n">
         <v>154.5347919213013</v>
       </c>
       <c r="N13" t="n">
-        <v>150.8602999716562</v>
+        <v>150.8602999716561</v>
       </c>
       <c r="O13" t="n">
         <v>139.3439044709386</v>
@@ -31940,19 +31940,19 @@
         <v>119.2327826782458</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.55059841020163</v>
+        <v>82.55059841020162</v>
       </c>
       <c r="R13" t="n">
-        <v>44.32691995840377</v>
+        <v>44.32691995840376</v>
       </c>
       <c r="S13" t="n">
         <v>17.18049040846341</v>
       </c>
       <c r="T13" t="n">
-        <v>4.21222247886166</v>
+        <v>4.212222478861659</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0537730529216383</v>
+        <v>0.05377305292163828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.197759616897775</v>
+        <v>2.197759616897776</v>
       </c>
       <c r="H14" t="n">
-        <v>22.50780567655434</v>
+        <v>22.50780567655435</v>
       </c>
       <c r="I14" t="n">
-        <v>84.72912763045156</v>
+        <v>84.72912763045157</v>
       </c>
       <c r="J14" t="n">
         <v>186.5321002846777</v>
@@ -32004,19 +32004,19 @@
         <v>279.5632648679606</v>
       </c>
       <c r="L14" t="n">
-        <v>346.8229507435959</v>
+        <v>346.822950743596</v>
       </c>
       <c r="M14" t="n">
-        <v>385.9073583306017</v>
+        <v>385.9073583306018</v>
       </c>
       <c r="N14" t="n">
         <v>392.1517428421126</v>
       </c>
       <c r="O14" t="n">
-        <v>370.2977706515853</v>
+        <v>370.2977706515854</v>
       </c>
       <c r="P14" t="n">
-        <v>316.0405801094214</v>
+        <v>316.0405801094215</v>
       </c>
       <c r="Q14" t="n">
         <v>237.3333138292698</v>
@@ -32025,10 +32025,10 @@
         <v>138.055017534955</v>
       </c>
       <c r="S14" t="n">
-        <v>50.0814472700581</v>
+        <v>50.08144727005811</v>
       </c>
       <c r="T14" t="n">
-        <v>9.620692722970015</v>
+        <v>9.620692722970018</v>
       </c>
       <c r="U14" t="n">
         <v>0.175820769351822</v>
@@ -32074,7 +32074,7 @@
         <v>11.35676731845958</v>
       </c>
       <c r="I15" t="n">
-        <v>40.48620501812338</v>
+        <v>40.48620501812339</v>
       </c>
       <c r="J15" t="n">
         <v>111.0972410567383</v>
@@ -32089,28 +32089,28 @@
         <v>297.9475240633105</v>
       </c>
       <c r="N15" t="n">
-        <v>282.1637533742336</v>
+        <v>305.8333084547386</v>
       </c>
       <c r="O15" t="n">
         <v>279.7777278494444</v>
       </c>
       <c r="P15" t="n">
-        <v>224.5462922393701</v>
+        <v>224.5462922393702</v>
       </c>
       <c r="Q15" t="n">
         <v>150.1032497894857</v>
       </c>
       <c r="R15" t="n">
-        <v>73.0092634696248</v>
+        <v>73.00926346962481</v>
       </c>
       <c r="S15" t="n">
         <v>21.84192079640158</v>
       </c>
       <c r="T15" t="n">
-        <v>4.739722600210874</v>
+        <v>4.739722600210875</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07736217519386634</v>
+        <v>0.07736217519386636</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9858393035633674</v>
+        <v>0.9858393035633676</v>
       </c>
       <c r="H16" t="n">
-        <v>8.765007626227037</v>
+        <v>8.765007626227039</v>
       </c>
       <c r="I16" t="n">
         <v>29.64687651079655</v>
       </c>
       <c r="J16" t="n">
-        <v>69.69883876193006</v>
+        <v>69.69883876193008</v>
       </c>
       <c r="K16" t="n">
         <v>114.5366027230894</v>
       </c>
       <c r="L16" t="n">
-        <v>146.5674179134119</v>
+        <v>146.567417913412</v>
       </c>
       <c r="M16" t="n">
         <v>154.5347919213013</v>
       </c>
       <c r="N16" t="n">
-        <v>150.8602999716561</v>
+        <v>150.8602999716562</v>
       </c>
       <c r="O16" t="n">
         <v>139.3439044709386</v>
@@ -32177,19 +32177,19 @@
         <v>119.2327826782458</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.55059841020162</v>
+        <v>82.55059841020163</v>
       </c>
       <c r="R16" t="n">
-        <v>44.32691995840376</v>
+        <v>44.32691995840377</v>
       </c>
       <c r="S16" t="n">
         <v>17.18049040846341</v>
       </c>
       <c r="T16" t="n">
-        <v>4.212222478861659</v>
+        <v>4.21222247886166</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05377305292163828</v>
+        <v>0.0537730529216383</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34222,7 +34222,7 @@
         <v>297.9475240633105</v>
       </c>
       <c r="N42" t="n">
-        <v>282.1637533742336</v>
+        <v>305.8333084547386</v>
       </c>
       <c r="O42" t="n">
         <v>279.7777278494444</v>
@@ -34459,7 +34459,7 @@
         <v>297.9475240633105</v>
       </c>
       <c r="N45" t="n">
-        <v>282.1637533742336</v>
+        <v>305.8333084547386</v>
       </c>
       <c r="O45" t="n">
         <v>279.7777278494444</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>41.95966498317944</v>
+        <v>41.95966498317938</v>
       </c>
       <c r="L11" t="n">
-        <v>90.07649945235866</v>
+        <v>67.19058936653832</v>
       </c>
       <c r="M11" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="N11" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="O11" t="n">
-        <v>33.7791364473685</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="P11" t="n">
-        <v>10.69824349848311</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>5.143138429694688</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>52.6851851034242</v>
+        <v>52.68518510342417</v>
       </c>
       <c r="M12" t="n">
-        <v>90.07649945235866</v>
+        <v>90.0764994523586</v>
       </c>
       <c r="N12" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="O12" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="P12" t="n">
-        <v>28.6087213959122</v>
+        <v>80.13462432679854</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>8.792797570812695</v>
+        <v>8.792797570812667</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>41.95966498317938</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>90.07649945235866</v>
+        <v>110.6064846331067</v>
       </c>
       <c r="M14" t="n">
-        <v>49.02599223571536</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="N14" t="n">
-        <v>56.63513733209834</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="O14" t="n">
-        <v>90.07649945235866</v>
+        <v>50.75983630754929</v>
       </c>
       <c r="P14" t="n">
-        <v>28.89274983039661</v>
+        <v>61.5299879419253</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>5.143138429694717</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>52.68518510342417</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="M15" t="n">
         <v>90.07649945235866</v>
       </c>
       <c r="N15" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="O15" t="n">
-        <v>90.07649945235866</v>
+        <v>71.23072034944445</v>
       </c>
       <c r="P15" t="n">
-        <v>28.60872139591214</v>
+        <v>61.58908908077817</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>8.792797570812667</v>
+        <v>8.792797570812695</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>41.95966498317944</v>
       </c>
       <c r="L17" t="n">
         <v>110.6064846331067</v>
       </c>
       <c r="M17" t="n">
-        <v>112.2898242494746</v>
+        <v>165.8995109438519</v>
       </c>
       <c r="N17" t="n">
-        <v>113.7460545328637</v>
+        <v>170.3453376792143</v>
       </c>
       <c r="O17" t="n">
-        <v>113.7460545328637</v>
+        <v>132.7871835756823</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>61.5299879419253</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>51.52590293088632</v>
+        <v>57.05073739744225</v>
       </c>
       <c r="L18" t="n">
-        <v>52.6851851034242</v>
+        <v>138.3211207903182</v>
       </c>
       <c r="M18" t="n">
         <v>90.07649945235866</v>
@@ -35977,10 +35977,10 @@
         <v>113.7460545328637</v>
       </c>
       <c r="O18" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="P18" t="n">
-        <v>28.6087213959122</v>
+        <v>111.4090412422959</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>41.95966498317944</v>
+        <v>41.95966498317943</v>
       </c>
       <c r="L20" t="n">
-        <v>70.38066372176112</v>
+        <v>110.6064846331067</v>
       </c>
       <c r="M20" t="n">
-        <v>49.02599223571548</v>
+        <v>165.8995109438519</v>
       </c>
       <c r="N20" t="n">
-        <v>113.7460545328637</v>
+        <v>170.3453376792143</v>
       </c>
       <c r="O20" t="n">
-        <v>113.7460545328637</v>
+        <v>132.7871835756823</v>
       </c>
       <c r="P20" t="n">
         <v>61.5299879419253</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>11.24091726792186</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>52.6851851034242</v>
+        <v>149.1036748823236</v>
       </c>
       <c r="M21" t="n">
-        <v>90.07649945235866</v>
+        <v>136.3446827577955</v>
       </c>
       <c r="N21" t="n">
         <v>113.7460545328637</v>
       </c>
       <c r="O21" t="n">
-        <v>71.23072034944445</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="P21" t="n">
         <v>111.4090412422959</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>41.95966498317943</v>
+        <v>41.95966498317944</v>
       </c>
       <c r="L23" t="n">
         <v>110.6064846331067</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>57.05073739744225</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>55.87290390099565</v>
+        <v>149.1036748823236</v>
       </c>
       <c r="M24" t="n">
         <v>172.5247163416812</v>
@@ -36454,7 +36454,7 @@
         <v>172.5247163416812</v>
       </c>
       <c r="P24" t="n">
-        <v>111.4090412422959</v>
+        <v>75.22900765841027</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>41.95966498317943</v>
+        <v>41.95966498317944</v>
       </c>
       <c r="L26" t="n">
         <v>110.6064846331067</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.335300599533479</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>149.1036748823236</v>
       </c>
       <c r="M27" t="n">
+        <v>136.3446827577955</v>
+      </c>
+      <c r="N27" t="n">
+        <v>113.7460545328637</v>
+      </c>
+      <c r="O27" t="n">
         <v>172.5247163416812</v>
-      </c>
-      <c r="N27" t="n">
-        <v>172.5247163416812</v>
-      </c>
-      <c r="O27" t="n">
-        <v>71.23072034944445</v>
       </c>
       <c r="P27" t="n">
         <v>111.4090412422959</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.459794386196148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>52.6851851034242</v>
+        <v>149.1036748823236</v>
       </c>
       <c r="M30" t="n">
         <v>172.5247163416812</v>
       </c>
       <c r="N30" t="n">
-        <v>172.5247163416812</v>
+        <v>160.3663407953617</v>
       </c>
       <c r="O30" t="n">
         <v>172.5247163416812</v>
       </c>
       <c r="P30" t="n">
-        <v>111.4090412422959</v>
+        <v>28.6087213959122</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.459794386196148</v>
+        <v>57.05073739744225</v>
       </c>
       <c r="L33" t="n">
-        <v>52.6851851034242</v>
+        <v>149.1036748823236</v>
       </c>
       <c r="M33" t="n">
-        <v>172.5247163416812</v>
+        <v>90.07649945235866</v>
       </c>
       <c r="N33" t="n">
-        <v>172.5247163416812</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="O33" t="n">
         <v>172.5247163416812</v>
       </c>
       <c r="P33" t="n">
-        <v>111.4090412422959</v>
+        <v>100.6264871502906</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>110.6064846331067</v>
       </c>
       <c r="M35" t="n">
-        <v>49.02599223571548</v>
+        <v>165.8995109438519</v>
       </c>
       <c r="N35" t="n">
-        <v>113.7460545328637</v>
+        <v>170.3453376792143</v>
       </c>
       <c r="O35" t="n">
-        <v>113.7460545328637</v>
+        <v>132.7871835756823</v>
       </c>
       <c r="P35" t="n">
-        <v>21.30416703057971</v>
+        <v>61.5299879419253</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>46.26818330543686</v>
       </c>
       <c r="L36" t="n">
-        <v>63.92610237134606</v>
+        <v>149.1036748823236</v>
       </c>
       <c r="M36" t="n">
         <v>90.07649945235866</v>
@@ -37399,7 +37399,7 @@
         <v>113.7460545328637</v>
       </c>
       <c r="O36" t="n">
-        <v>71.23072034944445</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="P36" t="n">
         <v>111.4090412422959</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>41.95966498317944</v>
       </c>
       <c r="L38" t="n">
-        <v>47.62026640779238</v>
+        <v>110.6064846331067</v>
       </c>
       <c r="M38" t="n">
-        <v>113.7460545328637</v>
+        <v>165.8995109438519</v>
       </c>
       <c r="N38" t="n">
-        <v>113.7460545328637</v>
+        <v>170.3453376792143</v>
       </c>
       <c r="O38" t="n">
-        <v>113.7460545328637</v>
+        <v>132.7871835756823</v>
       </c>
       <c r="P38" t="n">
-        <v>61.5299879419253</v>
+        <v>61.52998794192526</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>63.92610237134606</v>
+        <v>149.1036748823236</v>
       </c>
       <c r="M39" t="n">
-        <v>90.07649945235866</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="N39" t="n">
-        <v>113.7460545328637</v>
+        <v>172.5247163416812</v>
       </c>
       <c r="O39" t="n">
-        <v>71.23072034944445</v>
+        <v>77.56602094897795</v>
       </c>
       <c r="P39" t="n">
         <v>111.4090412422959</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>41.95966498317944</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>23.99789922056948</v>
+        <v>110.6064846331067</v>
       </c>
       <c r="M41" t="n">
-        <v>49.02599223571548</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="N41" t="n">
-        <v>90.07649945235866</v>
+        <v>112.2898242494746</v>
       </c>
       <c r="O41" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="P41" t="n">
-        <v>61.5299879419253</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>52.6851851034242</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="M42" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="N42" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="O42" t="n">
-        <v>90.07649945235866</v>
+        <v>71.23072034944445</v>
       </c>
       <c r="P42" t="n">
-        <v>33.75185982560687</v>
+        <v>37.91953400027317</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>41.95966498317944</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.014568849989644</v>
+        <v>110.6064846331067</v>
       </c>
       <c r="M44" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="N44" t="n">
-        <v>90.07649945235866</v>
+        <v>112.2898242494746</v>
       </c>
       <c r="O44" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="P44" t="n">
-        <v>42.46281109586198</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>76.67410263603307</v>
+        <v>52.6851851034242</v>
       </c>
       <c r="M45" t="n">
         <v>90.07649945235866</v>
       </c>
       <c r="N45" t="n">
-        <v>90.07649945235866</v>
+        <v>113.7460545328637</v>
       </c>
       <c r="O45" t="n">
-        <v>71.23072034944445</v>
+        <v>82.47163761736628</v>
       </c>
       <c r="P45" t="n">
-        <v>28.6087213959122</v>
+        <v>111.4090412422959</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
